--- a/Outputs/1. Budget/Grid Search/Output Files/420000/Output_1_16.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/420000/Output_1_16.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>676698.7920741967</v>
+        <v>743016.4072937068</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>406463.2981009824</v>
+        <v>406463.2981009822</v>
       </c>
     </row>
     <row r="8">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>7773305.864680747</v>
+        <v>7773305.864680745</v>
       </c>
     </row>
     <row r="11">
@@ -703,28 +703,28 @@
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>209.0200695862453</v>
       </c>
       <c r="T2" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="W2" t="n">
-        <v>102.3382270926889</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>3.26531605719669</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -740,7 +740,7 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>29.79900896488263</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -761,7 +761,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -791,7 +791,7 @@
         <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
         <v>225.9413820809748</v>
@@ -803,7 +803,7 @@
         <v>241.0142888776591</v>
       </c>
       <c r="X3" t="n">
-        <v>34.66067414728059</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
         <v>0</v>
@@ -873,10 +873,10 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="V4" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
@@ -898,11 +898,11 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
+        <v>0</v>
+      </c>
+      <c r="D5" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="D5" t="n">
-        <v>0</v>
-      </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
@@ -919,7 +919,7 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -943,25 +943,25 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>50.46697834767995</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U5" t="n">
+        <v>0</v>
+      </c>
+      <c r="V5" t="n">
+        <v>230.2038249569697</v>
+      </c>
+      <c r="W5" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="V5" t="n">
-        <v>0</v>
-      </c>
-      <c r="W5" t="n">
-        <v>0</v>
-      </c>
       <c r="X5" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -1025,7 +1025,7 @@
         <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>29.79900896488251</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
         <v>0</v>
@@ -1043,7 +1043,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
-        <v>0</v>
+        <v>29.79900896488263</v>
       </c>
     </row>
     <row r="7">
@@ -1101,19 +1101,19 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
+        <v>0</v>
+      </c>
+      <c r="S7" t="n">
+        <v>0</v>
+      </c>
+      <c r="T7" t="n">
+        <v>0</v>
+      </c>
+      <c r="U7" t="n">
+        <v>0</v>
+      </c>
+      <c r="V7" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="S7" t="n">
-        <v>0</v>
-      </c>
-      <c r="T7" t="n">
-        <v>0</v>
-      </c>
-      <c r="U7" t="n">
-        <v>0</v>
-      </c>
-      <c r="V7" t="n">
-        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -1132,7 +1132,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -1141,19 +1141,19 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>84.41978777916125</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1186,7 +1186,7 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>114.9581870864144</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -1211,7 +1211,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0</v>
+        <v>29.05241763862477</v>
       </c>
       <c r="C9" t="n">
         <v>0</v>
@@ -1235,7 +1235,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -1277,7 +1277,7 @@
         <v>241.0142888776591</v>
       </c>
       <c r="X9" t="n">
-        <v>135.4141600157168</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y9" t="n">
         <v>0</v>
@@ -1375,22 +1375,22 @@
         <v>0</v>
       </c>
       <c r="D11" t="n">
+        <v>0</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0</v>
+      </c>
+      <c r="F11" t="n">
+        <v>91.86750308377565</v>
+      </c>
+      <c r="G11" t="n">
         <v>276.1565137023555</v>
       </c>
-      <c r="E11" t="n">
-        <v>0</v>
-      </c>
-      <c r="F11" t="n">
-        <v>0</v>
-      </c>
-      <c r="G11" t="n">
-        <v>0</v>
-      </c>
       <c r="H11" t="n">
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>205.0481221176458</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1420,13 +1420,13 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>205.8118405263978</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
         <v>222.4795457699687</v>
       </c>
       <c r="U11" t="n">
-        <v>91.10378467502365</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -1448,7 +1448,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C12" t="n">
         <v>172.7084989883157</v>
@@ -1457,7 +1457,7 @@
         <v>0</v>
       </c>
       <c r="E12" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F12" t="n">
         <v>0</v>
@@ -1505,16 +1505,16 @@
         <v>0</v>
       </c>
       <c r="U12" t="n">
-        <v>3.04844809665873</v>
+        <v>225.9364262421938</v>
       </c>
       <c r="V12" t="n">
-        <v>232.8005871494253</v>
+        <v>143.202313263019</v>
       </c>
       <c r="W12" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X12" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y12" t="n">
         <v>205.6826957773044</v>
@@ -1542,7 +1542,7 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>167.9278262653587</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -1590,10 +1590,10 @@
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>175.1311939478779</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>7.203367682519206</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -1606,13 +1606,13 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>20.90190720306288</v>
       </c>
       <c r="E14" t="n">
         <v>381.9303700722618</v>
@@ -1624,7 +1624,7 @@
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>330.8786841952548</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1660,19 +1660,19 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>62.55100561131264</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>251.2785039334788</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -1688,10 +1688,10 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C15" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E15" t="n">
         <v>157.6450804554009</v>
@@ -1733,10 +1733,10 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>72.27434132826724</v>
       </c>
       <c r="S15" t="n">
-        <v>37.99647002664152</v>
+        <v>163.3413660663109</v>
       </c>
       <c r="T15" t="n">
         <v>198.35454715303</v>
@@ -1745,7 +1745,7 @@
         <v>225.9118361363319</v>
       </c>
       <c r="V15" t="n">
-        <v>232.8005871494253</v>
+        <v>60.44478320516281</v>
       </c>
       <c r="W15" t="n">
         <v>251.6949831609196</v>
@@ -1764,13 +1764,13 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -1782,7 +1782,7 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>89.08583161930096</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1812,10 +1812,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>160.3641786191054</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>217.4550733994452</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -1827,7 +1827,7 @@
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>39.71403280089918</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -1849,22 +1849,22 @@
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
         <v>413.784170020795</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I17" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1891,10 +1891,10 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S17" t="n">
-        <v>138.2245380584127</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T17" t="n">
         <v>216.4483203576578</v>
@@ -1903,7 +1903,7 @@
         <v>251.2241675082893</v>
       </c>
       <c r="V17" t="n">
-        <v>327.7522584701349</v>
+        <v>71.70044599118928</v>
       </c>
       <c r="W17" t="n">
         <v>349.240968717413</v>
@@ -1912,7 +1912,7 @@
         <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -1943,7 +1943,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I18" t="n">
-        <v>61.42221998250796</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1970,7 +1970,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229296</v>
       </c>
       <c r="S18" t="n">
         <v>156.5912426325231</v>
@@ -2001,22 +2001,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>55.66811582074975</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -2067,7 +2067,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>213.6113417665674</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -2086,7 +2086,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
@@ -2095,13 +2095,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H20" t="n">
-        <v>66.02674985242864</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>67.01966455600403</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2134,16 +2134,16 @@
         <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U20" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
         <v>0</v>
@@ -2253,10 +2253,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>163.2123634091011</v>
       </c>
       <c r="H22" t="n">
-        <v>16.91544265059201</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2286,10 +2286,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -2301,13 +2301,13 @@
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2317,16 +2317,16 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C23" t="n">
         <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E23" t="n">
-        <v>381.9303700722618</v>
+        <v>109.6419998592291</v>
       </c>
       <c r="F23" t="n">
         <v>0</v>
@@ -2368,10 +2368,10 @@
         <v>54.47840257481171</v>
       </c>
       <c r="S23" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
         <v>251.2241675082893</v>
@@ -2383,10 +2383,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X23" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y23" t="n">
-        <v>64.76583591206386</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="24">
@@ -2411,13 +2411,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G24" t="n">
-        <v>136.5310119231965</v>
+        <v>136.5310119231958</v>
       </c>
       <c r="H24" t="n">
         <v>104.3883541553076</v>
       </c>
       <c r="I24" t="n">
-        <v>61.42221998250796</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2487,7 +2487,7 @@
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
@@ -2523,25 +2523,25 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U25" t="n">
-        <v>9.790440613649634</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>9.461970681989259</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -2554,16 +2554,16 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
         <v>406.8760457417114</v>
@@ -2608,22 +2608,22 @@
         <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V26" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
-        <v>0</v>
+        <v>242.2570193403166</v>
       </c>
       <c r="X26" t="n">
-        <v>339.5430991992148</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -2654,7 +2654,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I27" t="n">
-        <v>61.42221998250752</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2721,10 +2721,10 @@
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -2733,7 +2733,7 @@
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>94.63926978364032</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2769,7 +2769,7 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>89.06613335611762</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -2791,7 +2791,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
         <v>365.2728917710076</v>
@@ -2803,13 +2803,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>413.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>270.0180256261398</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2848,7 +2848,7 @@
         <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -2860,7 +2860,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
-        <v>0</v>
+        <v>132.7974594525191</v>
       </c>
     </row>
     <row r="30">
@@ -2885,7 +2885,7 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G30" t="n">
-        <v>136.5310119231965</v>
+        <v>136.5310119231963</v>
       </c>
       <c r="H30" t="n">
         <v>104.3883541553076</v>
@@ -2918,7 +2918,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>49.71123688229251</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S30" t="n">
         <v>156.5912426325231</v>
@@ -2949,10 +2949,10 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>4.55384256506873</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>10.46815663221251</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
@@ -2961,7 +2961,7 @@
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
@@ -2973,7 +2973,7 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>0</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K31" t="n">
         <v>0</v>
@@ -3000,10 +3000,10 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -3012,10 +3012,10 @@
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -3028,7 +3028,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>281.7423800959423</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
         <v>0</v>
@@ -3079,22 +3079,22 @@
         <v>54.47840257481171</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V32" t="n">
-        <v>0</v>
+        <v>9.385280099492419</v>
       </c>
       <c r="W32" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X32" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y32" t="n">
         <v>386.2379386560536</v>
@@ -3128,7 +3128,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I33" t="n">
-        <v>61.42221998250796</v>
+        <v>61.42221998250752</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3189,16 +3189,16 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
@@ -3243,13 +3243,13 @@
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>208.3423105940807</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>94.63926978364034</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
@@ -3265,25 +3265,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>58.49852621786721</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
         <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H35" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3313,7 +3313,7 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -3325,16 +3325,16 @@
         <v>251.2241675082893</v>
       </c>
       <c r="V35" t="n">
-        <v>327.7522584701349</v>
+        <v>155.7501928656662</v>
       </c>
       <c r="W35" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="36">
@@ -3423,7 +3423,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
@@ -3432,10 +3432,10 @@
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
@@ -3477,16 +3477,16 @@
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>94.63926978364034</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>286.2818742419777</v>
+        <v>195.7571515107713</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
@@ -3514,16 +3514,16 @@
         <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G38" t="n">
         <v>413.784170020795</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>116.3670469670636</v>
       </c>
       <c r="I38" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3553,13 +3553,13 @@
         <v>54.47840257481171</v>
       </c>
       <c r="S38" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U38" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
         <v>327.7522584701349</v>
@@ -3568,10 +3568,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X38" t="n">
-        <v>104.3371643554102</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="39">
@@ -3599,7 +3599,7 @@
         <v>136.5310119231965</v>
       </c>
       <c r="H39" t="n">
-        <v>104.3883541553073</v>
+        <v>104.3883541553076</v>
       </c>
       <c r="I39" t="n">
         <v>61.42221998250818</v>
@@ -3663,10 +3663,10 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>150.5122415521826</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
@@ -3678,7 +3678,7 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3711,19 +3711,19 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>94.63926978364034</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
@@ -3739,25 +3739,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E41" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
-        <v>406.8760457417114</v>
+        <v>183.7717650347577</v>
       </c>
       <c r="G41" t="n">
-        <v>413.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3787,7 +3787,7 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -3796,13 +3796,13 @@
         <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>221.002178698296</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
         <v>369.731100678469</v>
@@ -3830,7 +3830,7 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F42" t="n">
-        <v>145.0692123933839</v>
+        <v>145.0692123933836</v>
       </c>
       <c r="G42" t="n">
         <v>136.5310119231965</v>
@@ -3909,7 +3909,7 @@
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
@@ -3948,25 +3948,25 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>57.73991206543085</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>94.63926978364032</v>
       </c>
     </row>
     <row r="44">
@@ -3982,22 +3982,22 @@
         <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
         <v>413.784170020795</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4027,7 +4027,7 @@
         <v>54.47840257481172</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T44" t="n">
         <v>216.4483203576578</v>
@@ -4039,10 +4039,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W44" t="n">
-        <v>209.5972717395336</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>353.5759586385873</v>
       </c>
       <c r="Y44" t="n">
         <v>0</v>
@@ -4076,7 +4076,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I45" t="n">
-        <v>61.42221998250752</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4103,7 +4103,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229251</v>
       </c>
       <c r="S45" t="n">
         <v>156.5912426325231</v>
@@ -4137,13 +4137,13 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
@@ -4152,7 +4152,7 @@
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4191,19 +4191,19 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>48.97699675700453</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>189.5968436493439</v>
       </c>
     </row>
   </sheetData>
@@ -4351,25 +4351,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q2" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R2" t="n">
-        <v>802.5825927271064</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S2" t="n">
-        <v>591.4512093066566</v>
+        <v>752.9257720901863</v>
       </c>
       <c r="T2" t="n">
-        <v>366.1018663125844</v>
+        <v>752.9257720901863</v>
       </c>
       <c r="U2" t="n">
-        <v>122.6530896684844</v>
+        <v>509.4769954460863</v>
       </c>
       <c r="V2" t="n">
-        <v>122.6530896684844</v>
+        <v>266.0282188019862</v>
       </c>
       <c r="W2" t="n">
-        <v>19.28114311021272</v>
+        <v>22.57944215788615</v>
       </c>
       <c r="X2" t="n">
         <v>19.28114311021272</v>
@@ -4385,49 +4385,49 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>20.03527576299844</v>
+        <v>49.38115216564972</v>
       </c>
       <c r="C3" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D3" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E3" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F3" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G3" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H3" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I3" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J3" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K3" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L3" t="n">
-        <v>19.28114311021272</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M3" t="n">
-        <v>234.810827406191</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N3" t="n">
-        <v>473.4149733950735</v>
+        <v>851.8101010141643</v>
       </c>
       <c r="O3" t="n">
-        <v>712.019119383956</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P3" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q3" t="n">
         <v>964.0571555106362</v>
@@ -4439,22 +4439,22 @@
         <v>964.0571555106362</v>
       </c>
       <c r="T3" t="n">
-        <v>761.8705608694022</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U3" t="n">
-        <v>533.6469426057913</v>
+        <v>735.8335372470253</v>
       </c>
       <c r="V3" t="n">
-        <v>298.4948343740486</v>
+        <v>500.6814290152826</v>
       </c>
       <c r="W3" t="n">
-        <v>55.04605772994853</v>
+        <v>257.2326523711826</v>
       </c>
       <c r="X3" t="n">
-        <v>20.03527576299844</v>
+        <v>49.38115216564972</v>
       </c>
       <c r="Y3" t="n">
-        <v>20.03527576299844</v>
+        <v>49.38115216564972</v>
       </c>
     </row>
     <row r="4">
@@ -4521,7 +4521,7 @@
         <v>153.8134336004835</v>
       </c>
       <c r="U4" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V4" t="n">
         <v>19.28114311021272</v>
@@ -4543,28 +4543,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>274.7999090013961</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="C5" t="n">
-        <v>31.35113235729608</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="D5" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E5" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F5" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G5" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H5" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I5" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J5" t="n">
         <v>19.28114311021272</v>
@@ -4591,28 +4591,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R5" t="n">
-        <v>812.6742080953335</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S5" t="n">
-        <v>812.6742080953335</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T5" t="n">
-        <v>761.6974622895962</v>
+        <v>738.7078125165641</v>
       </c>
       <c r="U5" t="n">
-        <v>518.2486856454962</v>
+        <v>738.7078125165641</v>
       </c>
       <c r="V5" t="n">
-        <v>518.2486856454962</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="W5" t="n">
-        <v>518.2486856454962</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="X5" t="n">
-        <v>274.7999090013961</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="Y5" t="n">
-        <v>274.7999090013961</v>
+        <v>262.7299197543128</v>
       </c>
     </row>
     <row r="6">
@@ -4649,19 +4649,19 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K6" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L6" t="n">
-        <v>248.2447175439888</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M6" t="n">
-        <v>486.8488635328713</v>
+        <v>542.809531908403</v>
       </c>
       <c r="N6" t="n">
-        <v>725.4530095217538</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O6" t="n">
-        <v>964.0571555106362</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P6" t="n">
         <v>964.0571555106362</v>
@@ -4673,22 +4673,22 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S6" t="n">
-        <v>933.9571464551993</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T6" t="n">
-        <v>933.9571464551993</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U6" t="n">
-        <v>705.7335281915883</v>
+        <v>735.8335372470253</v>
       </c>
       <c r="V6" t="n">
-        <v>470.5814199598456</v>
+        <v>500.6814290152826</v>
       </c>
       <c r="W6" t="n">
-        <v>227.1326433157456</v>
+        <v>257.2326523711826</v>
       </c>
       <c r="X6" t="n">
-        <v>19.28114311021272</v>
+        <v>49.38115216564972</v>
       </c>
       <c r="Y6" t="n">
         <v>19.28114311021272</v>
@@ -4749,16 +4749,16 @@
         <v>153.8134336004835</v>
       </c>
       <c r="R7" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S7" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T7" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U7" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V7" t="n">
         <v>19.28114311021272</v>
@@ -4780,25 +4780,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>591.4512093066566</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="C8" t="n">
-        <v>591.4512093066566</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="D8" t="n">
-        <v>591.4512093066566</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="E8" t="n">
-        <v>506.1786963984129</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="F8" t="n">
-        <v>262.7299197543128</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="G8" t="n">
-        <v>19.28114311021272</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="H8" t="n">
-        <v>19.28114311021272</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="I8" t="n">
         <v>19.28114311021272</v>
@@ -4834,22 +4834,22 @@
         <v>591.4512093066566</v>
       </c>
       <c r="T8" t="n">
-        <v>591.4512093066566</v>
+        <v>475.3318284112885</v>
       </c>
       <c r="U8" t="n">
-        <v>591.4512093066566</v>
+        <v>475.3318284112885</v>
       </c>
       <c r="V8" t="n">
-        <v>591.4512093066566</v>
+        <v>475.3318284112885</v>
       </c>
       <c r="W8" t="n">
-        <v>591.4512093066566</v>
+        <v>475.3318284112885</v>
       </c>
       <c r="X8" t="n">
-        <v>591.4512093066566</v>
+        <v>475.3318284112885</v>
       </c>
       <c r="Y8" t="n">
-        <v>591.4512093066566</v>
+        <v>475.3318284112885</v>
       </c>
     </row>
     <row r="9">
@@ -4859,46 +4859,46 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="C9" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="D9" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="E9" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="F9" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="G9" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="H9" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I9" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J9" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K9" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L9" t="n">
-        <v>374.6018090363993</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M9" t="n">
-        <v>374.6018090363993</v>
+        <v>487.8483949674443</v>
       </c>
       <c r="N9" t="n">
-        <v>542.809531908403</v>
+        <v>725.4530095217538</v>
       </c>
       <c r="O9" t="n">
-        <v>781.4136778972854</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P9" t="n">
         <v>964.0571555106362</v>
@@ -4907,28 +4907,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R9" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S9" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T9" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U9" t="n">
-        <v>634.6640077999109</v>
+        <v>735.8335372470253</v>
       </c>
       <c r="V9" t="n">
-        <v>399.5118995681682</v>
+        <v>500.6814290152826</v>
       </c>
       <c r="W9" t="n">
-        <v>156.0631229240681</v>
+        <v>257.2326523711826</v>
       </c>
       <c r="X9" t="n">
-        <v>19.28114311021272</v>
+        <v>49.38115216564972</v>
       </c>
       <c r="Y9" t="n">
-        <v>19.28114311021272</v>
+        <v>49.38115216564972</v>
       </c>
     </row>
     <row r="10">
@@ -5017,25 +5017,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>301.0384945329112</v>
+        <v>600.9532674636399</v>
       </c>
       <c r="C11" t="n">
-        <v>301.0384945329112</v>
+        <v>600.9532674636399</v>
       </c>
       <c r="D11" t="n">
-        <v>22.09252109618844</v>
+        <v>600.9532674636399</v>
       </c>
       <c r="E11" t="n">
-        <v>22.09252109618844</v>
+        <v>600.9532674636399</v>
       </c>
       <c r="F11" t="n">
-        <v>22.09252109618844</v>
+        <v>508.1578098032605</v>
       </c>
       <c r="G11" t="n">
-        <v>22.09252109618844</v>
+        <v>229.2118363665377</v>
       </c>
       <c r="H11" t="n">
-        <v>22.09252109618844</v>
+        <v>229.2118363665377</v>
       </c>
       <c r="I11" t="n">
         <v>22.09252109618844</v>
@@ -5044,7 +5044,7 @@
         <v>22.09252109618844</v>
       </c>
       <c r="K11" t="n">
-        <v>142.8373253438684</v>
+        <v>142.8373253438683</v>
       </c>
       <c r="L11" t="n">
         <v>344.9085595412869</v>
@@ -5053,10 +5053,10 @@
         <v>586.3582880173957</v>
       </c>
       <c r="N11" t="n">
-        <v>817.0829279823542</v>
+        <v>817.0829279823544</v>
       </c>
       <c r="O11" t="n">
-        <v>989.7620250901064</v>
+        <v>989.7620250901066</v>
       </c>
       <c r="P11" t="n">
         <v>1099.465256491931</v>
@@ -5068,25 +5068,25 @@
         <v>1104.626054809422</v>
       </c>
       <c r="S11" t="n">
-        <v>896.7353068029595</v>
+        <v>1104.626054809422</v>
       </c>
       <c r="T11" t="n">
-        <v>672.0084928939002</v>
+        <v>879.8992409003627</v>
       </c>
       <c r="U11" t="n">
-        <v>579.9844679696339</v>
+        <v>879.8992409003627</v>
       </c>
       <c r="V11" t="n">
-        <v>579.9844679696339</v>
+        <v>879.8992409003627</v>
       </c>
       <c r="W11" t="n">
-        <v>579.9844679696339</v>
+        <v>879.8992409003627</v>
       </c>
       <c r="X11" t="n">
-        <v>579.9844679696339</v>
+        <v>879.8992409003627</v>
       </c>
       <c r="Y11" t="n">
-        <v>579.9844679696339</v>
+        <v>879.8992409003627</v>
       </c>
     </row>
     <row r="12">
@@ -5096,13 +5096,13 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>196.5455503773155</v>
+        <v>355.783005382771</v>
       </c>
       <c r="C12" t="n">
-        <v>22.09252109618844</v>
+        <v>181.329976101644</v>
       </c>
       <c r="D12" t="n">
-        <v>22.09252109618844</v>
+        <v>181.329976101644</v>
       </c>
       <c r="E12" t="n">
         <v>22.09252109618844</v>
@@ -5120,22 +5120,22 @@
         <v>22.09252109618844</v>
       </c>
       <c r="J12" t="n">
-        <v>28.39914141318535</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="K12" t="n">
-        <v>165.799003153448</v>
+        <v>159.4923828364511</v>
       </c>
       <c r="L12" t="n">
-        <v>411.954469746149</v>
+        <v>159.4923828364511</v>
       </c>
       <c r="M12" t="n">
-        <v>564.7342926608062</v>
+        <v>367.8501726635177</v>
       </c>
       <c r="N12" t="n">
-        <v>838.1292412261381</v>
+        <v>641.2451212288496</v>
       </c>
       <c r="O12" t="n">
-        <v>1104.626054809422</v>
+        <v>907.7419348121334</v>
       </c>
       <c r="P12" t="n">
         <v>1104.626054809422</v>
@@ -5153,19 +5153,19 @@
         <v>1104.626054809422</v>
       </c>
       <c r="U12" t="n">
-        <v>1101.546814307746</v>
+        <v>876.4074424435696</v>
       </c>
       <c r="V12" t="n">
-        <v>866.3947060760038</v>
+        <v>731.7586411677928</v>
       </c>
       <c r="W12" t="n">
-        <v>612.1573493478022</v>
+        <v>731.7586411677928</v>
       </c>
       <c r="X12" t="n">
-        <v>404.3058491422694</v>
+        <v>731.7586411677928</v>
       </c>
       <c r="Y12" t="n">
-        <v>196.5455503773155</v>
+        <v>523.9983424028389</v>
       </c>
     </row>
     <row r="13">
@@ -5175,19 +5175,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>22.09252109618844</v>
+        <v>191.7165880308942</v>
       </c>
       <c r="C13" t="n">
-        <v>22.09252109618844</v>
+        <v>191.7165880308942</v>
       </c>
       <c r="D13" t="n">
-        <v>22.09252109618844</v>
+        <v>191.7165880308942</v>
       </c>
       <c r="E13" t="n">
-        <v>22.09252109618844</v>
+        <v>191.7165880308942</v>
       </c>
       <c r="F13" t="n">
-        <v>22.09252109618844</v>
+        <v>191.7165880308942</v>
       </c>
       <c r="G13" t="n">
         <v>22.09252109618844</v>
@@ -5238,13 +5238,13 @@
         <v>198.9927170031359</v>
       </c>
       <c r="W13" t="n">
-        <v>22.09252109618844</v>
+        <v>198.9927170031359</v>
       </c>
       <c r="X13" t="n">
-        <v>22.09252109618844</v>
+        <v>191.7165880308942</v>
       </c>
       <c r="Y13" t="n">
-        <v>22.09252109618844</v>
+        <v>191.7165880308942</v>
       </c>
     </row>
     <row r="14">
@@ -5254,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>835.0157749450711</v>
+        <v>1559.312222590854</v>
       </c>
       <c r="C14" t="n">
-        <v>835.0157749450711</v>
+        <v>1190.349705650443</v>
       </c>
       <c r="D14" t="n">
-        <v>835.0157749450711</v>
+        <v>1169.236668071591</v>
       </c>
       <c r="E14" t="n">
-        <v>449.227522346827</v>
+        <v>783.4484154733469</v>
       </c>
       <c r="F14" t="n">
-        <v>38.24161755721943</v>
+        <v>372.4625106837394</v>
       </c>
       <c r="G14" t="n">
-        <v>38.24161755721943</v>
+        <v>372.4625106837394</v>
       </c>
       <c r="H14" t="n">
-        <v>38.24161755721943</v>
+        <v>38.24161755721936</v>
       </c>
       <c r="I14" t="n">
-        <v>38.24161755721943</v>
+        <v>38.24161755721936</v>
       </c>
       <c r="J14" t="n">
-        <v>96.93923871827218</v>
+        <v>96.93923871827189</v>
       </c>
       <c r="K14" t="n">
-        <v>305.6565612977715</v>
+        <v>305.6565612977709</v>
       </c>
       <c r="L14" t="n">
-        <v>616.8654835480078</v>
+        <v>616.8654835480064</v>
       </c>
       <c r="M14" t="n">
-        <v>979.7519185640737</v>
+        <v>979.7519185640722</v>
       </c>
       <c r="N14" t="n">
-        <v>1333.878237938974</v>
+        <v>1333.878237938972</v>
       </c>
       <c r="O14" t="n">
-        <v>1623.082041653885</v>
+        <v>1623.082041653882</v>
       </c>
       <c r="P14" t="n">
-        <v>1832.236414250553</v>
+        <v>1832.23641425055</v>
       </c>
       <c r="Q14" t="n">
-        <v>1912.080877860971</v>
+        <v>1912.080877860968</v>
       </c>
       <c r="R14" t="n">
-        <v>1912.080877860971</v>
+        <v>1912.080877860968</v>
       </c>
       <c r="S14" t="n">
-        <v>1912.080877860971</v>
+        <v>1912.080877860968</v>
       </c>
       <c r="T14" t="n">
-        <v>1848.89804391015</v>
+        <v>1912.080877860968</v>
       </c>
       <c r="U14" t="n">
-        <v>1595.081373270273</v>
+        <v>1912.080877860968</v>
       </c>
       <c r="V14" t="n">
-        <v>1595.081373270273</v>
+        <v>1912.080877860968</v>
       </c>
       <c r="W14" t="n">
-        <v>1595.081373270273</v>
+        <v>1559.312222590854</v>
       </c>
       <c r="X14" t="n">
-        <v>1221.615615009193</v>
+        <v>1559.312222590854</v>
       </c>
       <c r="Y14" t="n">
-        <v>1221.615615009193</v>
+        <v>1559.312222590854</v>
       </c>
     </row>
     <row r="15">
@@ -5333,76 +5333,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>371.9321018438019</v>
+        <v>346.4134822239262</v>
       </c>
       <c r="C15" t="n">
-        <v>197.4790725626749</v>
+        <v>346.4134822239262</v>
       </c>
       <c r="D15" t="n">
         <v>197.4790725626749</v>
       </c>
       <c r="E15" t="n">
-        <v>38.24161755721943</v>
+        <v>38.24161755721936</v>
       </c>
       <c r="F15" t="n">
-        <v>38.24161755721943</v>
+        <v>38.24161755721936</v>
       </c>
       <c r="G15" t="n">
-        <v>38.24161755721943</v>
+        <v>38.24161755721936</v>
       </c>
       <c r="H15" t="n">
-        <v>38.24161755721943</v>
+        <v>38.24161755721936</v>
       </c>
       <c r="I15" t="n">
-        <v>38.24161755721943</v>
+        <v>38.24161755721936</v>
       </c>
       <c r="J15" t="n">
-        <v>79.50813891877796</v>
+        <v>38.24161755721936</v>
       </c>
       <c r="K15" t="n">
-        <v>276.6600398753084</v>
+        <v>235.3935185137496</v>
       </c>
       <c r="L15" t="n">
-        <v>603.1594970539164</v>
+        <v>561.8929756923574</v>
       </c>
       <c r="M15" t="n">
-        <v>1036.148185237161</v>
+        <v>994.8816638756019</v>
       </c>
       <c r="N15" t="n">
-        <v>1163.851773243553</v>
+        <v>1455.037287624462</v>
       </c>
       <c r="O15" t="n">
-        <v>1518.388592024568</v>
+        <v>1785.932577936998</v>
       </c>
       <c r="P15" t="n">
-        <v>1785.932577937001</v>
+        <v>1785.932577936998</v>
       </c>
       <c r="Q15" t="n">
-        <v>1912.080877860971</v>
+        <v>1912.080877860968</v>
       </c>
       <c r="R15" t="n">
-        <v>1912.080877860971</v>
+        <v>1839.0764926809</v>
       </c>
       <c r="S15" t="n">
-        <v>1873.700605106788</v>
+        <v>1674.085213826041</v>
       </c>
       <c r="T15" t="n">
-        <v>1673.342476669384</v>
+        <v>1473.727085388637</v>
       </c>
       <c r="U15" t="n">
-        <v>1445.148702794301</v>
+        <v>1245.533311513554</v>
       </c>
       <c r="V15" t="n">
-        <v>1209.996594562558</v>
+        <v>1184.477974942683</v>
       </c>
       <c r="W15" t="n">
-        <v>955.7592378343568</v>
+        <v>930.2406182144809</v>
       </c>
       <c r="X15" t="n">
-        <v>747.907737628824</v>
+        <v>722.3891180089481</v>
       </c>
       <c r="Y15" t="n">
-        <v>540.14743886387</v>
+        <v>514.6288192439943</v>
       </c>
     </row>
     <row r="16">
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>278.3439454738996</v>
+        <v>38.24161755721936</v>
       </c>
       <c r="C16" t="n">
-        <v>278.3439454738996</v>
+        <v>38.24161755721936</v>
       </c>
       <c r="D16" t="n">
-        <v>128.2273060615638</v>
+        <v>38.24161755721936</v>
       </c>
       <c r="E16" t="n">
-        <v>128.2273060615638</v>
+        <v>38.24161755721936</v>
       </c>
       <c r="F16" t="n">
-        <v>128.2273060615638</v>
+        <v>38.24161755721936</v>
       </c>
       <c r="G16" t="n">
-        <v>128.2273060615638</v>
+        <v>38.24161755721936</v>
       </c>
       <c r="H16" t="n">
-        <v>38.24161755721943</v>
+        <v>38.24161755721936</v>
       </c>
       <c r="I16" t="n">
-        <v>38.24161755721943</v>
+        <v>38.24161755721936</v>
       </c>
       <c r="J16" t="n">
-        <v>38.24161755721943</v>
+        <v>38.24161755721936</v>
       </c>
       <c r="K16" t="n">
-        <v>59.5008832572742</v>
+        <v>59.500883257274</v>
       </c>
       <c r="L16" t="n">
-        <v>142.2318586473017</v>
+        <v>142.2318586473013</v>
       </c>
       <c r="M16" t="n">
-        <v>239.849195551903</v>
+        <v>239.8491955519024</v>
       </c>
       <c r="N16" t="n">
-        <v>340.5800267922421</v>
+        <v>340.5800267922414</v>
       </c>
       <c r="O16" t="n">
-        <v>417.6049576856852</v>
+        <v>417.6049576856843</v>
       </c>
       <c r="P16" t="n">
-        <v>459.9924103041393</v>
+        <v>459.9924103041383</v>
       </c>
       <c r="Q16" t="n">
-        <v>459.9924103041393</v>
+        <v>459.9924103041383</v>
       </c>
       <c r="R16" t="n">
-        <v>459.9924103041393</v>
+        <v>298.0083914969612</v>
       </c>
       <c r="S16" t="n">
-        <v>459.9924103041393</v>
+        <v>78.35680220459227</v>
       </c>
       <c r="T16" t="n">
-        <v>459.9924103041393</v>
+        <v>78.35680220459227</v>
       </c>
       <c r="U16" t="n">
-        <v>459.9924103041393</v>
+        <v>78.35680220459227</v>
       </c>
       <c r="V16" t="n">
-        <v>459.9924103041393</v>
+        <v>78.35680220459227</v>
       </c>
       <c r="W16" t="n">
-        <v>459.9924103041393</v>
+        <v>38.24161755721936</v>
       </c>
       <c r="X16" t="n">
-        <v>459.9924103041393</v>
+        <v>38.24161755721936</v>
       </c>
       <c r="Y16" t="n">
-        <v>459.9924103041393</v>
+        <v>38.24161755721936</v>
       </c>
     </row>
     <row r="17">
@@ -5491,25 +5491,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1011.161018525332</v>
+        <v>1568.353113282533</v>
       </c>
       <c r="C17" t="n">
-        <v>1011.161018525332</v>
+        <v>1568.353113282533</v>
       </c>
       <c r="D17" t="n">
-        <v>1011.161018525332</v>
+        <v>1210.087414675782</v>
       </c>
       <c r="E17" t="n">
-        <v>625.3727659270879</v>
+        <v>1210.087414675782</v>
       </c>
       <c r="F17" t="n">
-        <v>625.3727659270879</v>
+        <v>799.1015098861748</v>
       </c>
       <c r="G17" t="n">
-        <v>207.4089578252748</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="H17" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I17" t="n">
         <v>53.94298182036445</v>
@@ -5521,7 +5521,7 @@
         <v>463.9616490733127</v>
       </c>
       <c r="L17" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M17" t="n">
         <v>1362.238747280443</v>
@@ -5539,28 +5539,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R17" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S17" t="n">
-        <v>2557.528345504674</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T17" t="n">
-        <v>2338.893678476737</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U17" t="n">
-        <v>2085.131893114828</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="V17" t="n">
-        <v>1754.069005771258</v>
+        <v>1921.121768552647</v>
       </c>
       <c r="W17" t="n">
-        <v>1401.300350501144</v>
+        <v>1568.353113282533</v>
       </c>
       <c r="X17" t="n">
-        <v>1401.300350501144</v>
+        <v>1568.353113282533</v>
       </c>
       <c r="Y17" t="n">
-        <v>1011.161018525332</v>
+        <v>1568.353113282533</v>
       </c>
     </row>
     <row r="18">
@@ -5570,67 +5570,67 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C18" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D18" t="n">
-        <v>665.1105362747047</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E18" t="n">
-        <v>505.8730812692492</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F18" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G18" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H18" t="n">
-        <v>115.9856282673422</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I18" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J18" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K18" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L18" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M18" t="n">
-        <v>1237.953133915166</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N18" t="n">
-        <v>1791.679670014717</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O18" t="n">
-        <v>2231.815593035061</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P18" t="n">
-        <v>2568.06040664989</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q18" t="n">
         <v>2697.149091018222</v>
       </c>
       <c r="R18" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S18" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T18" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U18" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V18" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W18" t="n">
         <v>1572.325111207638</v>
@@ -5649,19 +5649,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>222.942782082032</v>
+        <v>257.0633493392342</v>
       </c>
       <c r="C19" t="n">
-        <v>222.942782082032</v>
+        <v>257.0633493392342</v>
       </c>
       <c r="D19" t="n">
-        <v>222.942782082032</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="E19" t="n">
-        <v>222.942782082032</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="F19" t="n">
-        <v>222.942782082032</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G19" t="n">
         <v>53.94298182036445</v>
@@ -5715,10 +5715,10 @@
         <v>438.7118141694738</v>
       </c>
       <c r="X19" t="n">
-        <v>222.942782082032</v>
+        <v>438.7118141694738</v>
       </c>
       <c r="Y19" t="n">
-        <v>222.942782082032</v>
+        <v>438.7118141694738</v>
       </c>
     </row>
     <row r="20">
@@ -5728,25 +5728,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1258.850788876759</v>
+        <v>1646.746562480844</v>
       </c>
       <c r="C20" t="n">
-        <v>889.8882719363473</v>
+        <v>1277.784045540433</v>
       </c>
       <c r="D20" t="n">
-        <v>531.6225733295969</v>
+        <v>1277.784045540433</v>
       </c>
       <c r="E20" t="n">
-        <v>531.6225733295969</v>
+        <v>1277.784045540433</v>
       </c>
       <c r="F20" t="n">
-        <v>120.6366685399893</v>
+        <v>866.7981407508253</v>
       </c>
       <c r="G20" t="n">
-        <v>120.6366685399893</v>
+        <v>448.8343326490121</v>
       </c>
       <c r="H20" t="n">
-        <v>53.94298182036444</v>
+        <v>121.639612685015</v>
       </c>
       <c r="I20" t="n">
         <v>53.94298182036444</v>
@@ -5782,22 +5782,22 @@
         <v>2642.120401548715</v>
       </c>
       <c r="T20" t="n">
-        <v>2642.120401548715</v>
+        <v>2423.485734520778</v>
       </c>
       <c r="U20" t="n">
-        <v>2388.358616186807</v>
+        <v>2423.485734520778</v>
       </c>
       <c r="V20" t="n">
-        <v>2388.358616186807</v>
+        <v>2423.485734520778</v>
       </c>
       <c r="W20" t="n">
-        <v>2035.589960916692</v>
+        <v>2423.485734520778</v>
       </c>
       <c r="X20" t="n">
-        <v>2035.589960916692</v>
+        <v>2423.485734520778</v>
       </c>
       <c r="Y20" t="n">
-        <v>1645.450628940881</v>
+        <v>2033.346402544966</v>
       </c>
     </row>
     <row r="21">
@@ -5831,25 +5831,25 @@
         <v>53.94298182036444</v>
       </c>
       <c r="J21" t="n">
-        <v>53.94298182036444</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K21" t="n">
-        <v>309.1903022614629</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L21" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M21" t="n">
-        <v>1237.953133915166</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N21" t="n">
-        <v>1791.679670014717</v>
+        <v>1748.695370517452</v>
       </c>
       <c r="O21" t="n">
-        <v>2231.815593035061</v>
+        <v>2188.831293537796</v>
       </c>
       <c r="P21" t="n">
-        <v>2568.06040664989</v>
+        <v>2525.076107152625</v>
       </c>
       <c r="Q21" t="n">
         <v>2697.149091018222</v>
@@ -5886,22 +5886,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>217.9192350259435</v>
+        <v>365.6939024587809</v>
       </c>
       <c r="C22" t="n">
-        <v>217.9192350259435</v>
+        <v>365.6939024587809</v>
       </c>
       <c r="D22" t="n">
-        <v>217.9192350259435</v>
+        <v>365.6939024587809</v>
       </c>
       <c r="E22" t="n">
-        <v>217.9192350259435</v>
+        <v>365.6939024587809</v>
       </c>
       <c r="F22" t="n">
-        <v>71.02928752803314</v>
+        <v>218.8039549608706</v>
       </c>
       <c r="G22" t="n">
-        <v>71.02928752803314</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="H22" t="n">
         <v>53.94298182036444</v>
@@ -5934,28 +5934,28 @@
         <v>728.1289842064342</v>
       </c>
       <c r="R22" t="n">
-        <v>728.1289842064342</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="S22" t="n">
-        <v>728.1289842064342</v>
+        <v>365.6939024587809</v>
       </c>
       <c r="T22" t="n">
-        <v>728.1289842064342</v>
+        <v>365.6939024587809</v>
       </c>
       <c r="U22" t="n">
-        <v>728.1289842064342</v>
+        <v>365.6939024587809</v>
       </c>
       <c r="V22" t="n">
-        <v>728.1289842064342</v>
+        <v>365.6939024587809</v>
       </c>
       <c r="W22" t="n">
-        <v>438.7118141694736</v>
+        <v>365.6939024587809</v>
       </c>
       <c r="X22" t="n">
-        <v>438.7118141694736</v>
+        <v>365.6939024587809</v>
       </c>
       <c r="Y22" t="n">
-        <v>217.9192350259435</v>
+        <v>365.6939024587809</v>
       </c>
     </row>
     <row r="23">
@@ -5965,13 +5965,13 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>857.6950425204218</v>
+        <v>940.9219833362301</v>
       </c>
       <c r="C23" t="n">
-        <v>857.6950425204218</v>
+        <v>940.9219833362301</v>
       </c>
       <c r="D23" t="n">
-        <v>857.6950425204218</v>
+        <v>582.6562847294797</v>
       </c>
       <c r="E23" t="n">
         <v>471.9067899221776</v>
@@ -5980,28 +5980,28 @@
         <v>471.9067899221776</v>
       </c>
       <c r="G23" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="H23" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="I23" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J23" t="n">
         <v>169.7108380533141</v>
       </c>
       <c r="K23" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L23" t="n">
-        <v>881.2824271224079</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M23" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N23" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O23" t="n">
         <v>2238.843319642689</v>
@@ -6013,28 +6013,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R23" t="n">
-        <v>2642.120401548716</v>
+        <v>2642.120401548715</v>
       </c>
       <c r="S23" t="n">
-        <v>2465.942913862886</v>
+        <v>2642.120401548715</v>
       </c>
       <c r="T23" t="n">
-        <v>2247.308246834948</v>
+        <v>2642.120401548715</v>
       </c>
       <c r="U23" t="n">
-        <v>1993.54646147304</v>
+        <v>2388.358616186807</v>
       </c>
       <c r="V23" t="n">
-        <v>1662.48357412947</v>
+        <v>2057.295728843236</v>
       </c>
       <c r="W23" t="n">
-        <v>1309.714918859356</v>
+        <v>1704.527073573122</v>
       </c>
       <c r="X23" t="n">
-        <v>1309.714918859356</v>
+        <v>1331.061315312042</v>
       </c>
       <c r="Y23" t="n">
-        <v>1244.294882584544</v>
+        <v>940.9219833362301</v>
       </c>
     </row>
     <row r="24">
@@ -6044,49 +6044,49 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170825</v>
       </c>
       <c r="C24" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359555</v>
       </c>
       <c r="D24" t="n">
-        <v>665.1105362747047</v>
+        <v>665.1105362747043</v>
       </c>
       <c r="E24" t="n">
-        <v>505.8730812692492</v>
+        <v>505.8730812692488</v>
       </c>
       <c r="F24" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961338</v>
       </c>
       <c r="G24" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H24" t="n">
-        <v>115.9856282673422</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I24" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J24" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K24" t="n">
-        <v>266.206002764199</v>
+        <v>266.2060027641985</v>
       </c>
       <c r="L24" t="n">
-        <v>670.8219208598708</v>
+        <v>670.8219208598704</v>
       </c>
       <c r="M24" t="n">
-        <v>1194.968834417902</v>
+        <v>1194.968834417901</v>
       </c>
       <c r="N24" t="n">
-        <v>1748.695370517453</v>
+        <v>1748.695370517452</v>
       </c>
       <c r="O24" t="n">
-        <v>2188.831293537797</v>
+        <v>2188.831293537796</v>
       </c>
       <c r="P24" t="n">
-        <v>2525.076107152626</v>
+        <v>2525.076107152625</v>
       </c>
       <c r="Q24" t="n">
         <v>2697.149091018222</v>
@@ -6107,10 +6107,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W24" t="n">
-        <v>1572.325111207638</v>
+        <v>1572.325111207637</v>
       </c>
       <c r="X24" t="n">
-        <v>1364.473611002105</v>
+        <v>1364.473611002104</v>
       </c>
       <c r="Y24" t="n">
         <v>1156.713312237151</v>
@@ -6123,31 +6123,31 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>200.8329293182748</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="C25" t="n">
-        <v>200.8329293182748</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="D25" t="n">
-        <v>200.8329293182748</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="E25" t="n">
-        <v>200.8329293182748</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="F25" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="G25" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="H25" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="I25" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J25" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="K25" t="n">
         <v>110.2451748866326</v>
@@ -6171,28 +6171,28 @@
         <v>728.1289842064342</v>
       </c>
       <c r="R25" t="n">
-        <v>728.1289842064342</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="S25" t="n">
-        <v>728.1289842064342</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="T25" t="n">
-        <v>728.1289842064342</v>
+        <v>352.67413830922</v>
       </c>
       <c r="U25" t="n">
-        <v>718.2396502532528</v>
+        <v>63.50052796378793</v>
       </c>
       <c r="V25" t="n">
-        <v>718.2396502532528</v>
+        <v>63.50052796378793</v>
       </c>
       <c r="W25" t="n">
-        <v>428.8224802162921</v>
+        <v>63.50052796378793</v>
       </c>
       <c r="X25" t="n">
-        <v>200.8329293182748</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="Y25" t="n">
-        <v>200.8329293182748</v>
+        <v>53.94298182036444</v>
       </c>
     </row>
     <row r="26">
@@ -6202,28 +6202,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1577.945354755378</v>
+        <v>833.8914035503838</v>
       </c>
       <c r="C26" t="n">
-        <v>1208.982837814967</v>
+        <v>464.928886609972</v>
       </c>
       <c r="D26" t="n">
-        <v>850.7171392082162</v>
+        <v>464.928886609972</v>
       </c>
       <c r="E26" t="n">
         <v>464.928886609972</v>
       </c>
       <c r="F26" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G26" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H26" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I26" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J26" t="n">
         <v>169.7108380533141</v>
@@ -6250,28 +6250,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R26" t="n">
-        <v>2642.120401548715</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S26" t="n">
-        <v>2642.120401548715</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T26" t="n">
-        <v>2642.120401548715</v>
+        <v>2423.485734520778</v>
       </c>
       <c r="U26" t="n">
-        <v>2642.120401548715</v>
+        <v>2169.72394915887</v>
       </c>
       <c r="V26" t="n">
-        <v>2311.057514205144</v>
+        <v>1838.661061815299</v>
       </c>
       <c r="W26" t="n">
-        <v>2311.057514205144</v>
+        <v>1593.957001875585</v>
       </c>
       <c r="X26" t="n">
-        <v>1968.08468673119</v>
+        <v>1220.491243614505</v>
       </c>
       <c r="Y26" t="n">
-        <v>1577.945354755378</v>
+        <v>1220.491243614505</v>
       </c>
     </row>
     <row r="27">
@@ -6281,34 +6281,34 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>988.4979752170825</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C27" t="n">
-        <v>814.0449459359555</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D27" t="n">
-        <v>665.1105362747043</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E27" t="n">
-        <v>505.8730812692488</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F27" t="n">
-        <v>359.3385232961338</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G27" t="n">
-        <v>221.4284102423999</v>
+        <v>221.4284102424008</v>
       </c>
       <c r="H27" t="n">
-        <v>115.9856282673417</v>
+        <v>115.9856282673427</v>
       </c>
       <c r="I27" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J27" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K27" t="n">
-        <v>309.1903022614629</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L27" t="n">
         <v>713.8062203571349</v>
@@ -6344,10 +6344,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W27" t="n">
-        <v>1572.325111207637</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X27" t="n">
-        <v>1364.473611002104</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y27" t="n">
         <v>1156.713312237151</v>
@@ -6360,31 +6360,31 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>348.7460229006679</v>
+        <v>149.5382038240415</v>
       </c>
       <c r="C28" t="n">
-        <v>348.7460229006679</v>
+        <v>149.5382038240415</v>
       </c>
       <c r="D28" t="n">
-        <v>348.7460229006679</v>
+        <v>149.5382038240415</v>
       </c>
       <c r="E28" t="n">
-        <v>200.8329293182748</v>
+        <v>149.5382038240415</v>
       </c>
       <c r="F28" t="n">
-        <v>53.94298182036444</v>
+        <v>149.5382038240415</v>
       </c>
       <c r="G28" t="n">
-        <v>53.94298182036444</v>
+        <v>149.5382038240415</v>
       </c>
       <c r="H28" t="n">
-        <v>53.94298182036444</v>
+        <v>149.5382038240415</v>
       </c>
       <c r="I28" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J28" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K28" t="n">
         <v>110.2451748866326</v>
@@ -6417,19 +6417,19 @@
         <v>728.1289842064342</v>
       </c>
       <c r="U28" t="n">
-        <v>638.1631929376285</v>
+        <v>438.9553738610022</v>
       </c>
       <c r="V28" t="n">
-        <v>638.1631929376285</v>
+        <v>438.9553738610022</v>
       </c>
       <c r="W28" t="n">
-        <v>348.7460229006679</v>
+        <v>149.5382038240415</v>
       </c>
       <c r="X28" t="n">
-        <v>348.7460229006679</v>
+        <v>149.5382038240415</v>
       </c>
       <c r="Y28" t="n">
-        <v>348.7460229006679</v>
+        <v>149.5382038240415</v>
       </c>
     </row>
     <row r="29">
@@ -6439,31 +6439,31 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2268.654643287636</v>
+        <v>1494.154169929768</v>
       </c>
       <c r="C29" t="n">
-        <v>1899.692126347224</v>
+        <v>1125.191652989356</v>
       </c>
       <c r="D29" t="n">
-        <v>1541.426427740474</v>
+        <v>766.9259543826058</v>
       </c>
       <c r="E29" t="n">
-        <v>1155.638175142229</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="F29" t="n">
-        <v>744.6522703526218</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="G29" t="n">
-        <v>326.6884622508087</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="H29" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I29" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J29" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K29" t="n">
         <v>463.9616490733126</v>
@@ -6496,19 +6496,19 @@
         <v>2642.120401548716</v>
       </c>
       <c r="U29" t="n">
-        <v>2642.120401548716</v>
+        <v>2388.358616186807</v>
       </c>
       <c r="V29" t="n">
-        <v>2642.120401548716</v>
+        <v>2388.358616186807</v>
       </c>
       <c r="W29" t="n">
-        <v>2642.120401548716</v>
+        <v>2388.358616186807</v>
       </c>
       <c r="X29" t="n">
-        <v>2268.654643287636</v>
+        <v>2014.892857925727</v>
       </c>
       <c r="Y29" t="n">
-        <v>2268.654643287636</v>
+        <v>1880.75400999389</v>
       </c>
     </row>
     <row r="30">
@@ -6518,19 +6518,19 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>988.4979752170833</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C30" t="n">
-        <v>814.0449459359563</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D30" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747047</v>
       </c>
       <c r="E30" t="n">
-        <v>505.8730812692495</v>
+        <v>505.8730812692492</v>
       </c>
       <c r="F30" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G30" t="n">
         <v>221.4284102424006</v>
@@ -6539,13 +6539,13 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I30" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J30" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K30" t="n">
-        <v>309.1903022614629</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L30" t="n">
         <v>713.8062203571349</v>
@@ -6566,19 +6566,19 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R30" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S30" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T30" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U30" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V30" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W30" t="n">
         <v>1572.325111207638</v>
@@ -6597,31 +6597,31 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>53.94298182036444</v>
+        <v>257.0633493392339</v>
       </c>
       <c r="C31" t="n">
-        <v>53.94298182036444</v>
+        <v>246.4894537511405</v>
       </c>
       <c r="D31" t="n">
-        <v>53.94298182036444</v>
+        <v>246.4894537511405</v>
       </c>
       <c r="E31" t="n">
-        <v>53.94298182036444</v>
+        <v>246.4894537511405</v>
       </c>
       <c r="F31" t="n">
-        <v>53.94298182036444</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="G31" t="n">
-        <v>53.94298182036444</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="H31" t="n">
-        <v>53.94298182036444</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="I31" t="n">
-        <v>53.94298182036444</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="J31" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K31" t="n">
         <v>110.2451748866326</v>
@@ -6648,25 +6648,25 @@
         <v>728.1289842064342</v>
       </c>
       <c r="S31" t="n">
-        <v>513.8405610245969</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T31" t="n">
-        <v>286.5323736931987</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U31" t="n">
-        <v>286.5323736931987</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V31" t="n">
-        <v>286.5323736931987</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W31" t="n">
-        <v>286.5323736931987</v>
+        <v>438.7118141694736</v>
       </c>
       <c r="X31" t="n">
-        <v>58.54282279518134</v>
+        <v>438.7118141694736</v>
       </c>
       <c r="Y31" t="n">
-        <v>58.54282279518134</v>
+        <v>438.7118141694736</v>
       </c>
     </row>
     <row r="32">
@@ -6682,37 +6682,37 @@
         <v>1241.158393318536</v>
       </c>
       <c r="D32" t="n">
-        <v>882.8926947117852</v>
+        <v>882.8926947117851</v>
       </c>
       <c r="E32" t="n">
-        <v>882.8926947117852</v>
+        <v>882.8926947117851</v>
       </c>
       <c r="F32" t="n">
         <v>471.9067899221776</v>
       </c>
       <c r="G32" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="H32" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="I32" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J32" t="n">
         <v>169.7108380533141</v>
       </c>
       <c r="K32" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L32" t="n">
-        <v>881.2824271224079</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M32" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N32" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O32" t="n">
         <v>2238.843319642689</v>
@@ -6724,28 +6724,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R32" t="n">
-        <v>2642.120401548716</v>
+        <v>2642.120401548715</v>
       </c>
       <c r="S32" t="n">
-        <v>2642.120401548716</v>
+        <v>2465.942913862885</v>
       </c>
       <c r="T32" t="n">
-        <v>2642.120401548716</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U32" t="n">
-        <v>2642.120401548716</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="V32" t="n">
-        <v>2642.120401548716</v>
+        <v>1984.066380564461</v>
       </c>
       <c r="W32" t="n">
-        <v>2289.351746278601</v>
+        <v>1631.297725294347</v>
       </c>
       <c r="X32" t="n">
-        <v>1915.885988017521</v>
+        <v>1631.297725294347</v>
       </c>
       <c r="Y32" t="n">
-        <v>1525.74665604171</v>
+        <v>1241.158393318536</v>
       </c>
     </row>
     <row r="33">
@@ -6755,34 +6755,34 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170825</v>
       </c>
       <c r="C33" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359555</v>
       </c>
       <c r="D33" t="n">
-        <v>665.1105362747047</v>
+        <v>665.1105362747043</v>
       </c>
       <c r="E33" t="n">
-        <v>505.8730812692492</v>
+        <v>505.8730812692488</v>
       </c>
       <c r="F33" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961338</v>
       </c>
       <c r="G33" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102423999</v>
       </c>
       <c r="H33" t="n">
-        <v>115.9856282673422</v>
+        <v>115.9856282673417</v>
       </c>
       <c r="I33" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J33" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="K33" t="n">
-        <v>309.190302261463</v>
+        <v>309.1903022614629</v>
       </c>
       <c r="L33" t="n">
         <v>713.8062203571349</v>
@@ -6818,10 +6818,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W33" t="n">
-        <v>1572.325111207638</v>
+        <v>1572.325111207637</v>
       </c>
       <c r="X33" t="n">
-        <v>1364.473611002105</v>
+        <v>1364.473611002104</v>
       </c>
       <c r="Y33" t="n">
         <v>1156.713312237151</v>
@@ -6834,31 +6834,31 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>517.6822058285749</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="C34" t="n">
-        <v>348.7460229006679</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="D34" t="n">
-        <v>348.7460229006679</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="E34" t="n">
-        <v>200.8329293182748</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="F34" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="G34" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="H34" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="I34" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J34" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="K34" t="n">
         <v>110.2451748866326</v>
@@ -6891,19 +6891,19 @@
         <v>728.1289842064342</v>
       </c>
       <c r="U34" t="n">
-        <v>517.6822058285749</v>
+        <v>438.9553738610022</v>
       </c>
       <c r="V34" t="n">
-        <v>517.6822058285749</v>
+        <v>343.360151857325</v>
       </c>
       <c r="W34" t="n">
-        <v>517.6822058285749</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="X34" t="n">
-        <v>517.6822058285749</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="Y34" t="n">
-        <v>517.6822058285749</v>
+        <v>53.94298182036444</v>
       </c>
     </row>
     <row r="35">
@@ -6913,28 +6913,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1108.365917331524</v>
+        <v>882.8926947117851</v>
       </c>
       <c r="C35" t="n">
-        <v>739.4034003911122</v>
+        <v>882.8926947117851</v>
       </c>
       <c r="D35" t="n">
-        <v>381.1377017843616</v>
+        <v>882.8926947117851</v>
       </c>
       <c r="E35" t="n">
-        <v>381.1377017843616</v>
+        <v>882.8926947117851</v>
       </c>
       <c r="F35" t="n">
-        <v>381.1377017843616</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="G35" t="n">
-        <v>381.1377017843616</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="H35" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="I35" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J35" t="n">
         <v>169.7108380533141</v>
@@ -6961,28 +6961,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R35" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548715</v>
       </c>
       <c r="S35" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548715</v>
       </c>
       <c r="T35" t="n">
-        <v>2478.514423990285</v>
+        <v>2423.485734520778</v>
       </c>
       <c r="U35" t="n">
-        <v>2224.752638628377</v>
+        <v>2169.723949158869</v>
       </c>
       <c r="V35" t="n">
-        <v>1893.689751284806</v>
+        <v>2012.400522021833</v>
       </c>
       <c r="W35" t="n">
-        <v>1540.921096014692</v>
+        <v>1659.631866751719</v>
       </c>
       <c r="X35" t="n">
-        <v>1167.455337753612</v>
+        <v>1659.631866751719</v>
       </c>
       <c r="Y35" t="n">
-        <v>1167.455337753612</v>
+        <v>1269.492534775907</v>
       </c>
     </row>
     <row r="36">
@@ -6992,67 +6992,67 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C36" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D36" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E36" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F36" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G36" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H36" t="n">
         <v>115.9856282673424</v>
       </c>
       <c r="I36" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J36" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="K36" t="n">
-        <v>384.4474646615928</v>
+        <v>309.1903022614629</v>
       </c>
       <c r="L36" t="n">
-        <v>789.0633827572647</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M36" t="n">
-        <v>1313.210296315296</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N36" t="n">
-        <v>1866.936832414847</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O36" t="n">
-        <v>2307.072755435191</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P36" t="n">
-        <v>2643.31756905002</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q36" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R36" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S36" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T36" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U36" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V36" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W36" t="n">
         <v>1572.325111207638</v>
@@ -7071,31 +7071,31 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>53.94298182036445</v>
+        <v>348.7460229006679</v>
       </c>
       <c r="C37" t="n">
-        <v>53.94298182036445</v>
+        <v>348.7460229006679</v>
       </c>
       <c r="D37" t="n">
-        <v>53.94298182036445</v>
+        <v>348.7460229006679</v>
       </c>
       <c r="E37" t="n">
-        <v>53.94298182036445</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="F37" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="G37" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="H37" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="I37" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J37" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="K37" t="n">
         <v>110.2451748866326</v>
@@ -7125,22 +7125,22 @@
         <v>728.1289842064342</v>
       </c>
       <c r="T37" t="n">
-        <v>632.5337622027571</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U37" t="n">
-        <v>343.360151857325</v>
+        <v>530.3944877309076</v>
       </c>
       <c r="V37" t="n">
-        <v>343.360151857325</v>
+        <v>530.3944877309076</v>
       </c>
       <c r="W37" t="n">
-        <v>53.94298182036445</v>
+        <v>530.3944877309076</v>
       </c>
       <c r="X37" t="n">
-        <v>53.94298182036445</v>
+        <v>530.3944877309076</v>
       </c>
       <c r="Y37" t="n">
-        <v>53.94298182036445</v>
+        <v>530.3944877309076</v>
       </c>
     </row>
     <row r="38">
@@ -7150,37 +7150,37 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1036.358670716696</v>
+        <v>589.4492616060802</v>
       </c>
       <c r="C38" t="n">
-        <v>1036.358670716696</v>
+        <v>589.4492616060802</v>
       </c>
       <c r="D38" t="n">
-        <v>1036.358670716696</v>
+        <v>589.4492616060802</v>
       </c>
       <c r="E38" t="n">
-        <v>1036.358670716696</v>
+        <v>589.4492616060802</v>
       </c>
       <c r="F38" t="n">
-        <v>625.3727659270879</v>
+        <v>589.4492616060802</v>
       </c>
       <c r="G38" t="n">
-        <v>207.4089578252748</v>
+        <v>171.4854535042671</v>
       </c>
       <c r="H38" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I38" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J38" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K38" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L38" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M38" t="n">
         <v>1362.238747280443</v>
@@ -7201,25 +7201,25 @@
         <v>2642.120401548716</v>
       </c>
       <c r="S38" t="n">
-        <v>2465.942913862886</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T38" t="n">
-        <v>2465.942913862886</v>
+        <v>2423.485734520778</v>
       </c>
       <c r="U38" t="n">
-        <v>2212.181128500977</v>
+        <v>2423.485734520778</v>
       </c>
       <c r="V38" t="n">
-        <v>1881.118241157406</v>
+        <v>2092.422847177208</v>
       </c>
       <c r="W38" t="n">
-        <v>1528.349585887292</v>
+        <v>1739.654191907093</v>
       </c>
       <c r="X38" t="n">
-        <v>1422.958510780817</v>
+        <v>1366.188433646014</v>
       </c>
       <c r="Y38" t="n">
-        <v>1422.958510780817</v>
+        <v>976.0491016702019</v>
       </c>
     </row>
     <row r="39">
@@ -7229,22 +7229,22 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C39" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D39" t="n">
-        <v>665.1105362747047</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E39" t="n">
-        <v>505.8730812692492</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F39" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G39" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H39" t="n">
         <v>115.9856282673424</v>
@@ -7253,43 +7253,43 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J39" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K39" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L39" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M39" t="n">
-        <v>1237.953133915166</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N39" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O39" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P39" t="n">
-        <v>2525.076107152626</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q39" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R39" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S39" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T39" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U39" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V39" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W39" t="n">
         <v>1572.325111207638</v>
@@ -7308,22 +7308,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>513.8405610245969</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C40" t="n">
-        <v>361.80799380017</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D40" t="n">
-        <v>211.6913543878343</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E40" t="n">
-        <v>211.6913543878343</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F40" t="n">
-        <v>211.6913543878343</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G40" t="n">
-        <v>211.6913543878343</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H40" t="n">
         <v>53.94298182036445</v>
@@ -7359,25 +7359,25 @@
         <v>728.1289842064342</v>
       </c>
       <c r="S40" t="n">
-        <v>513.8405610245969</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T40" t="n">
-        <v>513.8405610245969</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U40" t="n">
-        <v>513.8405610245969</v>
+        <v>438.9553738610022</v>
       </c>
       <c r="V40" t="n">
-        <v>513.8405610245969</v>
+        <v>343.360151857325</v>
       </c>
       <c r="W40" t="n">
-        <v>513.8405610245969</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="X40" t="n">
-        <v>513.8405610245969</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y40" t="n">
-        <v>513.8405610245969</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="41">
@@ -7387,22 +7387,22 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1268.68094731003</v>
+        <v>1679.782215419422</v>
       </c>
       <c r="C41" t="n">
-        <v>1268.68094731003</v>
+        <v>1310.819698479011</v>
       </c>
       <c r="D41" t="n">
-        <v>1268.68094731003</v>
+        <v>952.5539998722602</v>
       </c>
       <c r="E41" t="n">
-        <v>882.8926947117852</v>
+        <v>566.7657472740159</v>
       </c>
       <c r="F41" t="n">
-        <v>471.9067899221776</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="G41" t="n">
-        <v>53.94298182036445</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="H41" t="n">
         <v>53.94298182036445</v>
@@ -7411,19 +7411,19 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J41" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533139</v>
       </c>
       <c r="K41" t="n">
         <v>463.9616490733126</v>
       </c>
       <c r="L41" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M41" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N41" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O41" t="n">
         <v>2238.843319642689</v>
@@ -7435,28 +7435,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R41" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S41" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T41" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U41" t="n">
-        <v>2642.120401548716</v>
+        <v>2443.387305656314</v>
       </c>
       <c r="V41" t="n">
-        <v>2642.120401548716</v>
+        <v>2443.387305656314</v>
       </c>
       <c r="W41" t="n">
-        <v>2418.885877611043</v>
+        <v>2443.387305656314</v>
       </c>
       <c r="X41" t="n">
-        <v>2045.420119349963</v>
+        <v>2069.921547395234</v>
       </c>
       <c r="Y41" t="n">
-        <v>1655.280787374151</v>
+        <v>1679.782215419422</v>
       </c>
     </row>
     <row r="42">
@@ -7472,13 +7472,13 @@
         <v>814.044945935956</v>
       </c>
       <c r="D42" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747047</v>
       </c>
       <c r="E42" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692492</v>
       </c>
       <c r="F42" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G42" t="n">
         <v>221.4284102424006</v>
@@ -7490,25 +7490,25 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J42" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K42" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L42" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M42" t="n">
-        <v>1237.953133915166</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N42" t="n">
-        <v>1791.679670014717</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O42" t="n">
-        <v>2231.815593035061</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P42" t="n">
-        <v>2568.06040664989</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q42" t="n">
         <v>2697.149091018222</v>
@@ -7545,16 +7545,16 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>200.8329293182748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C43" t="n">
-        <v>200.8329293182748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D43" t="n">
-        <v>200.8329293182748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E43" t="n">
-        <v>200.8329293182748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F43" t="n">
         <v>53.94298182036445</v>
@@ -7596,25 +7596,25 @@
         <v>728.1289842064342</v>
       </c>
       <c r="S43" t="n">
-        <v>513.8405610245969</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T43" t="n">
-        <v>513.8405610245969</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U43" t="n">
-        <v>455.5174175241617</v>
+        <v>438.9553738610022</v>
       </c>
       <c r="V43" t="n">
-        <v>200.8329293182748</v>
+        <v>438.9553738610022</v>
       </c>
       <c r="W43" t="n">
-        <v>200.8329293182748</v>
+        <v>149.5382038240415</v>
       </c>
       <c r="X43" t="n">
-        <v>200.8329293182748</v>
+        <v>149.5382038240415</v>
       </c>
       <c r="Y43" t="n">
-        <v>200.8329293182748</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="44">
@@ -7624,25 +7624,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1626.94664591678</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="C44" t="n">
-        <v>1626.94664591678</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="D44" t="n">
-        <v>1268.680947310029</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="E44" t="n">
-        <v>882.8926947117851</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="F44" t="n">
-        <v>471.9067899221776</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="G44" t="n">
-        <v>53.94298182036444</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H44" t="n">
-        <v>53.94298182036444</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I44" t="n">
         <v>53.94298182036444</v>
@@ -7675,25 +7675,25 @@
         <v>2642.120401548715</v>
       </c>
       <c r="S44" t="n">
-        <v>2642.120401548715</v>
+        <v>2465.942913862885</v>
       </c>
       <c r="T44" t="n">
-        <v>2423.485734520778</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U44" t="n">
-        <v>2169.723949158869</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="V44" t="n">
-        <v>1838.661061815299</v>
+        <v>1662.483574129469</v>
       </c>
       <c r="W44" t="n">
-        <v>1626.94664591678</v>
+        <v>1309.714918859355</v>
       </c>
       <c r="X44" t="n">
-        <v>1626.94664591678</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="Y44" t="n">
-        <v>1626.94664591678</v>
+        <v>952.5674858910851</v>
       </c>
     </row>
     <row r="45">
@@ -7703,25 +7703,25 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>988.4979752170825</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C45" t="n">
-        <v>814.0449459359555</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D45" t="n">
-        <v>665.1105362747043</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E45" t="n">
-        <v>505.8730812692488</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F45" t="n">
-        <v>359.3385232961338</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G45" t="n">
-        <v>221.4284102423999</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H45" t="n">
-        <v>115.9856282673417</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I45" t="n">
         <v>53.94298182036444</v>
@@ -7751,25 +7751,25 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R45" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S45" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T45" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U45" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V45" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W45" t="n">
-        <v>1572.325111207637</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X45" t="n">
-        <v>1364.473611002104</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y45" t="n">
         <v>1156.713312237151</v>
@@ -7782,22 +7782,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>678.65727031047</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="C46" t="n">
-        <v>509.7210873825632</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="D46" t="n">
-        <v>359.6044479702274</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="E46" t="n">
-        <v>211.6913543878343</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="F46" t="n">
-        <v>211.6913543878343</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="G46" t="n">
-        <v>211.6913543878343</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="H46" t="n">
         <v>53.94298182036444</v>
@@ -7839,19 +7839,19 @@
         <v>728.1289842064342</v>
       </c>
       <c r="U46" t="n">
-        <v>678.65727031047</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V46" t="n">
-        <v>678.65727031047</v>
+        <v>473.4444960005474</v>
       </c>
       <c r="W46" t="n">
-        <v>678.65727031047</v>
+        <v>473.4444960005474</v>
       </c>
       <c r="X46" t="n">
-        <v>678.65727031047</v>
+        <v>245.45494510253</v>
       </c>
       <c r="Y46" t="n">
-        <v>678.65727031047</v>
+        <v>53.94298182036444</v>
       </c>
     </row>
   </sheetData>
@@ -8060,25 +8060,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M3" t="n">
-        <v>359.8407857361378</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N3" t="n">
         <v>372.3560009609923</v>
       </c>
       <c r="O3" t="n">
-        <v>383.6105333221035</v>
+        <v>255.9771075721939</v>
       </c>
       <c r="P3" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q3" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8297,22 +8297,22 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
-        <v>369.8307175917693</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M6" t="n">
-        <v>383.1483227996774</v>
+        <v>312.04082470182</v>
       </c>
       <c r="N6" t="n">
-        <v>372.3560009609923</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O6" t="n">
         <v>383.6105333221035</v>
       </c>
       <c r="P6" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
         <v>139.9817740860215</v>
@@ -8534,22 +8534,22 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L9" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M9" t="n">
-        <v>142.1340339220183</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N9" t="n">
-        <v>301.248502863135</v>
+        <v>371.3463732493024</v>
       </c>
       <c r="O9" t="n">
         <v>383.6105333221035</v>
       </c>
       <c r="P9" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q9" t="n">
         <v>139.9817740860215</v>
@@ -8768,16 +8768,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>126.0910353404088</v>
+        <v>119.7207117878867</v>
       </c>
       <c r="K12" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L12" t="n">
-        <v>370.8403453034592</v>
+        <v>122.1984598562864</v>
       </c>
       <c r="M12" t="n">
-        <v>277.3705002792437</v>
+        <v>333.5098607968289</v>
       </c>
       <c r="N12" t="n">
         <v>387.9064735273546</v>
@@ -8786,7 +8786,7 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P12" t="n">
-        <v>119.5899201578276</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q12" t="n">
         <v>130.3661252938572</v>
@@ -9005,7 +9005,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>126.0910353404088</v>
+        <v>84.40768042974378</v>
       </c>
       <c r="K15" t="n">
         <v>264.4652370125786</v>
@@ -9017,13 +9017,13 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N15" t="n">
-        <v>143.5322372299491</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O15" t="n">
-        <v>393.8623192767295</v>
+        <v>369.9819874903877</v>
       </c>
       <c r="P15" t="n">
-        <v>318.4627686399372</v>
+        <v>48.21631822333865</v>
       </c>
       <c r="Q15" t="n">
         <v>210.0772877358491</v>
@@ -9242,7 +9242,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>50.07369958270192</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
         <v>264.4652370125786</v>
@@ -9263,7 +9263,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q18" t="n">
-        <v>166.6588033951776</v>
+        <v>90.64146763747073</v>
       </c>
       <c r="R18" t="n">
         <v>45.52166981132082</v>
@@ -9479,7 +9479,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>50.07369958270193</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
         <v>264.4652370125786</v>
@@ -9491,7 +9491,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N21" t="n">
-        <v>479.3423743435536</v>
+        <v>359.9065542451751</v>
       </c>
       <c r="O21" t="n">
         <v>393.8623192767295</v>
@@ -9500,7 +9500,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q21" t="n">
-        <v>166.6588033951776</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R21" t="n">
         <v>45.52166981132082</v>
@@ -9716,10 +9716,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>50.07369958270193</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K24" t="n">
-        <v>221.0467526719079</v>
+        <v>145.0294169142005</v>
       </c>
       <c r="L24" t="n">
         <v>370.8403453034592</v>
@@ -9974,7 +9974,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q27" t="n">
-        <v>166.6588033951776</v>
+        <v>166.6588033951781</v>
       </c>
       <c r="R27" t="n">
         <v>45.52166981132082</v>
@@ -10211,7 +10211,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q30" t="n">
-        <v>166.6588033951776</v>
+        <v>166.6588033951781</v>
       </c>
       <c r="R30" t="n">
         <v>45.52166981132082</v>
@@ -10448,7 +10448,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q33" t="n">
-        <v>166.6588033951781</v>
+        <v>166.6588033951776</v>
       </c>
       <c r="R33" t="n">
         <v>45.52166981132082</v>
@@ -10664,7 +10664,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K36" t="n">
         <v>264.4652370125786</v>
@@ -10685,7 +10685,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q36" t="n">
-        <v>90.64146763747121</v>
+        <v>166.6588033951786</v>
       </c>
       <c r="R36" t="n">
         <v>45.52166981132082</v>
@@ -10901,7 +10901,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>50.07369958270193</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K39" t="n">
         <v>264.4652370125786</v>
@@ -10913,7 +10913,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N39" t="n">
-        <v>435.9238900028826</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O39" t="n">
         <v>393.8623192767295</v>
@@ -10922,7 +10922,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q39" t="n">
-        <v>210.0772877358491</v>
+        <v>90.64146763747166</v>
       </c>
       <c r="R39" t="n">
         <v>45.52166981132082</v>
@@ -11077,7 +11077,7 @@
         <v>380.8001812627454</v>
       </c>
       <c r="P41" t="n">
-        <v>321.7987081714828</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q41" t="n">
         <v>212.3149906599047</v>
@@ -11138,7 +11138,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>50.07369958270193</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K42" t="n">
         <v>264.4652370125786</v>
@@ -11159,7 +11159,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q42" t="n">
-        <v>166.6588033951781</v>
+        <v>90.64146763747121</v>
       </c>
       <c r="R42" t="n">
         <v>45.52166981132082</v>
@@ -22591,28 +22591,28 @@
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U2" t="n">
         <v>10.33136403017744</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>86.73796959247585</v>
       </c>
       <c r="W2" t="n">
-        <v>246.9027416247241</v>
+        <v>108.226679839754</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>366.4657846212723</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -22628,7 +22628,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
-        <v>172.7084989883157</v>
+        <v>142.9094900234331</v>
       </c>
       <c r="D3" t="n">
         <v>147.4450655646388</v>
@@ -22649,7 +22649,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -22679,7 +22679,7 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U3" t="n">
         <v>0</v>
@@ -22691,7 +22691,7 @@
         <v>10.68069428326055</v>
       </c>
       <c r="X3" t="n">
-        <v>171.1123110561969</v>
+        <v>0</v>
       </c>
       <c r="Y3" t="n">
         <v>205.6826957773044</v>
@@ -22761,10 +22761,10 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U4" t="n">
-        <v>286.3190293564909</v>
+        <v>153.1320617711229</v>
       </c>
       <c r="V4" t="n">
-        <v>118.95067573846</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
@@ -22786,10 +22786,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>124.2586028933485</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>113.6687527430239</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
@@ -22807,7 +22807,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -22831,25 +22831,25 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S5" t="n">
         <v>209.0200695862453</v>
       </c>
       <c r="T5" t="n">
-        <v>172.6288712164514</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>10.33136403017744</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>97.54843351316518</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>108.226679839754</v>
       </c>
       <c r="X5" t="n">
-        <v>128.71681180081</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -22913,7 +22913,7 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S6" t="n">
-        <v>141.8841621389553</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T6" t="n">
         <v>200.1647286948216</v>
@@ -22931,7 +22931,7 @@
         <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>205.6826957773044</v>
+        <v>175.8836868124217</v>
       </c>
     </row>
     <row r="7">
@@ -22989,7 +22989,7 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R7" t="n">
-        <v>44.10642379180146</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S7" t="n">
         <v>224.0165980369723</v>
@@ -23001,7 +23001,7 @@
         <v>286.3190293564909</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>118.95067573846</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
@@ -23020,7 +23020,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>141.7195527858215</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
@@ -23029,19 +23029,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>297.5105822931005</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>165.8617568640524</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>174.288448637476</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H8" t="n">
         <v>339.4748021157671</v>
       </c>
       <c r="I8" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>11.94928935461252</v>
@@ -23074,7 +23074,7 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>223.0958495641314</v>
+        <v>108.137662477717</v>
       </c>
       <c r="U8" t="n">
         <v>251.3456529078365</v>
@@ -23099,7 +23099,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>166.5331836498673</v>
+        <v>137.4807660112426</v>
       </c>
       <c r="C9" t="n">
         <v>172.7084989883157</v>
@@ -23123,7 +23123,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J9" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -23147,7 +23147,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S9" t="n">
         <v>171.6831711038378</v>
@@ -23165,7 +23165,7 @@
         <v>10.68069428326055</v>
       </c>
       <c r="X9" t="n">
-        <v>70.35882518776063</v>
+        <v>0</v>
       </c>
       <c r="Y9" t="n">
         <v>205.6826957773044</v>
@@ -23263,22 +23263,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>78.52652791832747</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417114</v>
+        <v>315.0085426579358</v>
       </c>
       <c r="G11" t="n">
-        <v>415.1619485273195</v>
+        <v>139.005434824964</v>
       </c>
       <c r="H11" t="n">
         <v>338.0329468943008</v>
       </c>
       <c r="I11" t="n">
-        <v>205.0481221176458</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23308,13 +23308,13 @@
         <v>141.0252816852793</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>205.8118405263978</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>160.2306051137876</v>
+        <v>251.3343897888113</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
@@ -23336,7 +23336,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C12" t="n">
         <v>0</v>
@@ -23345,7 +23345,7 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E12" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F12" t="n">
         <v>145.0692123933839</v>
@@ -23393,16 +23393,16 @@
         <v>199.8611009721718</v>
       </c>
       <c r="U12" t="n">
-        <v>222.8879781455351</v>
+        <v>0</v>
       </c>
       <c r="V12" t="n">
-        <v>0</v>
+        <v>89.59827388640625</v>
       </c>
       <c r="W12" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X12" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y12" t="n">
         <v>0</v>
@@ -23430,7 +23430,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>167.9278262653587</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>161.6656840978772</v>
@@ -23478,10 +23478,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>111.3918043887131</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>218.506287706518</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -23494,13 +23494,13 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>354.683041620683</v>
+        <v>333.7811344176201</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
@@ -23512,10 +23512,10 @@
         <v>414.4633753356636</v>
       </c>
       <c r="H14" t="n">
-        <v>330.8786841952548</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>178.1163791463313</v>
+        <v>178.1163791463314</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23542,25 +23542,25 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>97.14353343492375</v>
+        <v>97.14353343492391</v>
       </c>
       <c r="S14" t="n">
         <v>189.8931039215388</v>
       </c>
       <c r="T14" t="n">
-        <v>156.8705360121823</v>
+        <v>219.4215416234949</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>251.2785039334788</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
         <v>386.2379386560536</v>
@@ -23576,10 +23576,10 @@
         <v>0</v>
       </c>
       <c r="C15" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D15" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E15" t="n">
         <v>0</v>
@@ -23594,7 +23594,7 @@
         <v>107.898099562911</v>
       </c>
       <c r="I15" t="n">
-        <v>73.93425515493647</v>
+        <v>73.93425515493651</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -23621,10 +23621,10 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>72.27434132826716</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>125.3448960396693</v>
+        <v>0</v>
       </c>
       <c r="T15" t="n">
         <v>0</v>
@@ -23633,7 +23633,7 @@
         <v>0</v>
       </c>
       <c r="V15" t="n">
-        <v>0</v>
+        <v>172.3558039442624</v>
       </c>
       <c r="W15" t="n">
         <v>0</v>
@@ -23652,13 +23652,13 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
@@ -23670,13 +23670,13 @@
         <v>167.6144703808229</v>
       </c>
       <c r="H16" t="n">
-        <v>69.79383379606688</v>
+        <v>158.8796654153679</v>
       </c>
       <c r="I16" t="n">
         <v>144.1278231270811</v>
       </c>
       <c r="J16" t="n">
-        <v>66.73999539781613</v>
+        <v>66.73999539781622</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -23697,13 +23697,13 @@
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>54.63455058802092</v>
+        <v>54.63455058802101</v>
       </c>
       <c r="R16" t="n">
-        <v>160.3641786191053</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>217.4550733994452</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>226.33686925111</v>
@@ -23715,7 +23715,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>246.8089655356918</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
@@ -23737,22 +23737,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23779,10 +23779,10 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>36.19117475055882</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
         <v>0</v>
@@ -23791,7 +23791,7 @@
         <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>256.0518124789456</v>
       </c>
       <c r="W17" t="n">
         <v>0</v>
@@ -23800,7 +23800,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="18">
@@ -23889,22 +23889,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>92.94735719746261</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H19" t="n">
         <v>156.1708888417951</v>
@@ -23955,7 +23955,7 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>12.09831362246979</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -23974,7 +23974,7 @@
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
         <v>381.9303700722618</v>
@@ -23983,13 +23983,13 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>413.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>257.8960229119285</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>151.9313162448613</v>
+        <v>84.91165168885722</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -24022,16 +24022,16 @@
         <v>174.4157128089715</v>
       </c>
       <c r="T20" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V20" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
         <v>369.731100678469</v>
@@ -24141,10 +24141,10 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>167.3098022590509</v>
+        <v>4.097438849949839</v>
       </c>
       <c r="H22" t="n">
-        <v>139.2554461912031</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I22" t="n">
         <v>134.9656217923382</v>
@@ -24174,10 +24174,10 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R22" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>225.0351054580843</v>
@@ -24189,13 +24189,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -24205,16 +24205,16 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D23" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>272.2883702130326</v>
       </c>
       <c r="F23" t="n">
         <v>406.8760457417114</v>
@@ -24256,10 +24256,10 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U23" t="n">
         <v>0</v>
@@ -24271,10 +24271,10 @@
         <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>321.4721027439897</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -24375,7 +24375,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>167.3098022590509</v>
@@ -24411,25 +24411,25 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R25" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T25" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>276.4914336283281</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>216.2476847070479</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -24442,16 +24442,16 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
         <v>0</v>
@@ -24496,22 +24496,22 @@
         <v>174.4157128089715</v>
       </c>
       <c r="T26" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>349.240968717413</v>
+        <v>106.9839493770965</v>
       </c>
       <c r="X26" t="n">
-        <v>30.18800147925424</v>
+        <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="27">
@@ -24609,10 +24609,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>167.3098022590509</v>
@@ -24621,7 +24621,7 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I28" t="n">
-        <v>134.9656217923382</v>
+        <v>40.32635200869791</v>
       </c>
       <c r="J28" t="n">
         <v>45.199959188537</v>
@@ -24657,7 +24657,7 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U28" t="n">
-        <v>197.2157408858601</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -24679,7 +24679,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C29" t="n">
         <v>0</v>
@@ -24691,13 +24691,13 @@
         <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H29" t="n">
-        <v>53.90474713821732</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
         <v>151.9313162448613</v>
@@ -24736,7 +24736,7 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U29" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
         <v>327.7522584701349</v>
@@ -24748,7 +24748,7 @@
         <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>386.2379386560536</v>
+        <v>253.4404792035345</v>
       </c>
     </row>
     <row r="30">
@@ -24806,7 +24806,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>8.029132914089132e-13</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -24837,10 +24837,10 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>175.2781376168686</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>156.7786644664153</v>
       </c>
       <c r="D31" t="n">
         <v>148.6154730182124</v>
@@ -24849,7 +24849,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>167.3098022590509</v>
@@ -24861,7 +24861,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J31" t="n">
-        <v>45.199959188537</v>
+        <v>0</v>
       </c>
       <c r="K31" t="n">
         <v>0</v>
@@ -24888,10 +24888,10 @@
         <v>146.6651919801579</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U31" t="n">
         <v>286.2818742419777</v>
@@ -24900,10 +24900,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
         <v>218.5846533520948</v>
@@ -24916,7 +24916,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>100.9914615675383</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
         <v>365.2728917710076</v>
@@ -24967,22 +24967,22 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>327.7522584701349</v>
+        <v>318.3669783706425</v>
       </c>
       <c r="W32" t="n">
         <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
         <v>0</v>
@@ -25077,16 +25077,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
         <v>167.3098022590509</v>
@@ -25131,13 +25131,13 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U34" t="n">
-        <v>77.93956364789699</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>157.4983735401877</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
         <v>225.7096553890372</v>
@@ -25153,25 +25153,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>324.2353154456134</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>413.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I35" t="n">
         <v>151.9313162448613</v>
@@ -25201,7 +25201,7 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
         <v>174.4157128089715</v>
@@ -25213,16 +25213,16 @@
         <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>172.0020656044687</v>
       </c>
       <c r="W35" t="n">
         <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -25311,7 +25311,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
         <v>167.2468210986278</v>
@@ -25320,10 +25320,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>167.3098022590509</v>
@@ -25365,16 +25365,16 @@
         <v>212.1455389500189</v>
       </c>
       <c r="T37" t="n">
-        <v>130.3958356744439</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>90.5247227312064</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
         <v>225.7096553890372</v>
@@ -25402,16 +25402,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
         <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>323.9227727643571</v>
+        <v>207.5557257972936</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -25441,13 +25441,13 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T38" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -25456,10 +25456,10 @@
         <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>265.3939363230588</v>
+        <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -25551,10 +25551,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>16.73457954644522</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
         <v>146.4339626465692</v>
@@ -25566,7 +25566,7 @@
         <v>167.3098022590509</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I40" t="n">
         <v>134.9656217923382</v>
@@ -25599,19 +25599,19 @@
         <v>146.6651919801579</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T40" t="n">
         <v>225.0351054580843</v>
       </c>
       <c r="U40" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>157.4983735401877</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
         <v>225.7096553890372</v>
@@ -25627,25 +25627,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
         <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>223.1042807069537</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H41" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
         <v>151.9313162448613</v>
@@ -25675,7 +25675,7 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S41" t="n">
         <v>174.4157128089715</v>
@@ -25684,13 +25684,13 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U41" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
-        <v>128.238790019117</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X41" t="n">
         <v>0</v>
@@ -25797,7 +25797,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
         <v>167.3098022590509</v>
@@ -25836,25 +25836,25 @@
         <v>146.6651919801579</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T43" t="n">
         <v>225.0351054580843</v>
       </c>
       <c r="U43" t="n">
-        <v>228.5419621765469</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>123.9453835684545</v>
       </c>
     </row>
     <row r="44">
@@ -25870,22 +25870,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
         <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25915,7 +25915,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
         <v>0</v>
@@ -25927,10 +25927,10 @@
         <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>139.6436969778794</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>369.731100678469</v>
+        <v>16.15514203988175</v>
       </c>
       <c r="Y44" t="n">
         <v>386.2379386560536</v>
@@ -25991,7 +25991,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>8.100187187665142e-13</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -26025,13 +26025,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
         <v>145.4210480229312</v>
@@ -26040,7 +26040,7 @@
         <v>167.3098022590509</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I46" t="n">
         <v>134.9656217923383</v>
@@ -26079,19 +26079,19 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U46" t="n">
-        <v>237.3048774849732</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>28.98780970275087</v>
       </c>
     </row>
   </sheetData>
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>640309.7097449603</v>
+        <v>640309.7097449597</v>
       </c>
     </row>
     <row r="7">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>789569.9565778475</v>
+        <v>789569.9565778474</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>789569.9565778476</v>
+        <v>789569.9565778475</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>789569.9565778474</v>
+        <v>789569.9565778476</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>789569.9565778476</v>
+        <v>789569.9565778474</v>
       </c>
     </row>
     <row r="12">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>789569.9565778475</v>
+        <v>789569.9565778474</v>
       </c>
     </row>
     <row r="14">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>789569.9565778476</v>
+        <v>789569.9565778475</v>
       </c>
     </row>
   </sheetData>
@@ -26319,22 +26319,22 @@
         <v>132928.5380250659</v>
       </c>
       <c r="D2" t="n">
-        <v>132928.538025066</v>
+        <v>132928.5380250659</v>
       </c>
       <c r="E2" t="n">
         <v>141745.4664845208</v>
       </c>
       <c r="F2" t="n">
-        <v>187164.7872550206</v>
+        <v>187164.7872550204</v>
       </c>
       <c r="G2" t="n">
+        <v>231322.0880126061</v>
+      </c>
+      <c r="H2" t="n">
         <v>231322.0880126062</v>
       </c>
-      <c r="H2" t="n">
+      <c r="I2" t="n">
         <v>231322.0880126061</v>
-      </c>
-      <c r="I2" t="n">
-        <v>231322.0880126062</v>
       </c>
       <c r="J2" t="n">
         <v>231322.0880126061</v>
@@ -26346,13 +26346,13 @@
         <v>231322.0880126062</v>
       </c>
       <c r="M2" t="n">
+        <v>231322.0880126062</v>
+      </c>
+      <c r="N2" t="n">
+        <v>231322.0880126062</v>
+      </c>
+      <c r="O2" t="n">
         <v>231322.0880126061</v>
-      </c>
-      <c r="N2" t="n">
-        <v>231322.0880126061</v>
-      </c>
-      <c r="O2" t="n">
-        <v>231322.0880126062</v>
       </c>
       <c r="P2" t="n">
         <v>231322.0880126061</v>
@@ -26377,10 +26377,10 @@
         <v>38628.88112923565</v>
       </c>
       <c r="F3" t="n">
-        <v>195194.8921689328</v>
+        <v>195194.8921689322</v>
       </c>
       <c r="G3" t="n">
-        <v>185152.0893328025</v>
+        <v>185152.0893328031</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26389,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>63059.94259910619</v>
+        <v>63059.94259910626</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26398,13 +26398,13 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>8757.582995213634</v>
+        <v>8757.582995213621</v>
       </c>
       <c r="N3" t="n">
-        <v>49441.87186138668</v>
+        <v>49441.87186138653</v>
       </c>
       <c r="O3" t="n">
-        <v>47231.86264112642</v>
+        <v>47231.86264112659</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26429,10 +26429,10 @@
         <v>8599.193178783524</v>
       </c>
       <c r="F4" t="n">
-        <v>8990.265499845918</v>
+        <v>8990.265499845915</v>
       </c>
       <c r="G4" t="n">
-        <v>9371.018034361481</v>
+        <v>9371.018034361483</v>
       </c>
       <c r="H4" t="n">
         <v>9371.018034361483</v>
@@ -26441,13 +26441,13 @@
         <v>9371.018034361483</v>
       </c>
       <c r="J4" t="n">
+        <v>9371.018034361485</v>
+      </c>
+      <c r="K4" t="n">
         <v>9371.018034361483</v>
       </c>
-      <c r="K4" t="n">
-        <v>9371.018034361481</v>
-      </c>
       <c r="L4" t="n">
-        <v>9371.018034361485</v>
+        <v>9371.018034361483</v>
       </c>
       <c r="M4" t="n">
         <v>9371.018034361483</v>
@@ -26456,7 +26456,7 @@
         <v>9371.018034361483</v>
       </c>
       <c r="O4" t="n">
-        <v>9371.018034361485</v>
+        <v>9371.018034361483</v>
       </c>
       <c r="P4" t="n">
         <v>9371.018034361483</v>
@@ -26481,7 +26481,7 @@
         <v>17553.77951678015</v>
       </c>
       <c r="F5" t="n">
-        <v>33615.28060221578</v>
+        <v>33615.28060221572</v>
       </c>
       <c r="G5" t="n">
         <v>49231.47806340946</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-16887.28395962632</v>
+        <v>-5891.074401589905</v>
       </c>
       <c r="C6" t="n">
-        <v>63882.14757192138</v>
+        <v>74878.35712995783</v>
       </c>
       <c r="D6" t="n">
-        <v>63882.14757192144</v>
+        <v>74878.35712995783</v>
       </c>
       <c r="E6" t="n">
-        <v>65296.6600683969</v>
+        <v>75796.91740058901</v>
       </c>
       <c r="F6" t="n">
-        <v>-59463.89605914228</v>
+        <v>-51518.47552029025</v>
       </c>
       <c r="G6" t="n">
-        <v>-18500.91116378643</v>
+        <v>-13039.33879254988</v>
       </c>
       <c r="H6" t="n">
-        <v>166651.178169016</v>
+        <v>172112.7505402533</v>
       </c>
       <c r="I6" t="n">
-        <v>166651.178169016</v>
+        <v>172112.7505402533</v>
       </c>
       <c r="J6" t="n">
-        <v>103591.2355699098</v>
+        <v>109052.807941147</v>
       </c>
       <c r="K6" t="n">
-        <v>166651.178169016</v>
+        <v>172112.7505402532</v>
       </c>
       <c r="L6" t="n">
-        <v>166651.178169016</v>
+        <v>172112.7505402533</v>
       </c>
       <c r="M6" t="n">
-        <v>157893.5951738023</v>
+        <v>163355.1675450397</v>
       </c>
       <c r="N6" t="n">
-        <v>117209.3063076293</v>
+        <v>122670.8786788668</v>
       </c>
       <c r="O6" t="n">
-        <v>119419.3155278896</v>
+        <v>124880.8878991267</v>
       </c>
       <c r="P6" t="n">
-        <v>166651.1781690159</v>
+        <v>172112.7505402533</v>
       </c>
     </row>
   </sheetData>
@@ -26749,7 +26749,7 @@
         <v>35.02126071912533</v>
       </c>
       <c r="F3" t="n">
-        <v>208.7913421435329</v>
+        <v>208.7913421435323</v>
       </c>
       <c r="G3" t="n">
         <v>377.7436642170867</v>
@@ -26801,7 +26801,7 @@
         <v>276.1565137023555</v>
       </c>
       <c r="F4" t="n">
-        <v>478.0202194652428</v>
+        <v>478.0202194652421</v>
       </c>
       <c r="G4" t="n">
         <v>674.2872727545556</v>
@@ -26810,19 +26810,19 @@
         <v>674.2872727545555</v>
       </c>
       <c r="I4" t="n">
+        <v>674.2872727545555</v>
+      </c>
+      <c r="J4" t="n">
         <v>674.2872727545556</v>
       </c>
-      <c r="J4" t="n">
+      <c r="K4" t="n">
+        <v>674.2872727545556</v>
+      </c>
+      <c r="L4" t="n">
         <v>674.2872727545555</v>
       </c>
-      <c r="K4" t="n">
+      <c r="M4" t="n">
         <v>674.2872727545555</v>
-      </c>
-      <c r="L4" t="n">
-        <v>674.2872727545556</v>
-      </c>
-      <c r="M4" t="n">
-        <v>674.2872727545556</v>
       </c>
       <c r="N4" t="n">
         <v>674.2872727545556</v>
@@ -26971,10 +26971,10 @@
         <v>35.02126071912533</v>
       </c>
       <c r="F3" t="n">
-        <v>173.7700814244076</v>
+        <v>173.770081424407</v>
       </c>
       <c r="G3" t="n">
-        <v>168.9523220735538</v>
+        <v>168.9523220735544</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -27023,10 +27023,10 @@
         <v>35.14222482469643</v>
       </c>
       <c r="F4" t="n">
-        <v>201.8637057628872</v>
+        <v>201.8637057628865</v>
       </c>
       <c r="G4" t="n">
-        <v>196.2670532893128</v>
+        <v>196.2670532893135</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>241.0142888776589</v>
+        <v>241.0142888776592</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,13 +27044,13 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>35.14222482469637</v>
+        <v>35.14222482469631</v>
       </c>
       <c r="N4" t="n">
-        <v>201.8637057628872</v>
+        <v>201.8637057628866</v>
       </c>
       <c r="O4" t="n">
-        <v>196.2670532893128</v>
+        <v>196.2670532893135</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27269,10 +27269,10 @@
         <v>35.14222482469643</v>
       </c>
       <c r="N4" t="n">
-        <v>201.8637057628872</v>
+        <v>201.8637057628865</v>
       </c>
       <c r="O4" t="n">
-        <v>196.2670532893128</v>
+        <v>196.2670532893135</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -31989,49 +31989,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0.8393621794714884</v>
+        <v>0.8393621794714859</v>
       </c>
       <c r="H14" t="n">
-        <v>8.596117920512382</v>
+        <v>8.596117920512357</v>
       </c>
       <c r="I14" t="n">
-        <v>32.35951042407459</v>
+        <v>32.35951042407449</v>
       </c>
       <c r="J14" t="n">
-        <v>71.2398157799183</v>
+        <v>71.23981577991809</v>
       </c>
       <c r="K14" t="n">
-        <v>106.7700168369464</v>
+        <v>106.7700168369461</v>
       </c>
       <c r="L14" t="n">
-        <v>132.457647136947</v>
+        <v>132.4576471369466</v>
       </c>
       <c r="M14" t="n">
-        <v>147.3846542961231</v>
+        <v>147.3846542961227</v>
       </c>
       <c r="N14" t="n">
-        <v>149.7694920885465</v>
+        <v>149.769492088546</v>
       </c>
       <c r="O14" t="n">
-        <v>141.4230844164268</v>
+        <v>141.4230844164264</v>
       </c>
       <c r="P14" t="n">
-        <v>120.7013306107245</v>
+        <v>120.7013306107241</v>
       </c>
       <c r="Q14" t="n">
-        <v>90.64167255840175</v>
+        <v>90.6416725584015</v>
       </c>
       <c r="R14" t="n">
-        <v>52.72558450622593</v>
+        <v>52.72558450622578</v>
       </c>
       <c r="S14" t="n">
-        <v>19.12696566470656</v>
+        <v>19.12696566470651</v>
       </c>
       <c r="T14" t="n">
-        <v>3.674307940636442</v>
+        <v>3.674307940636432</v>
       </c>
       <c r="U14" t="n">
-        <v>0.06714897435771905</v>
+        <v>0.06714897435771887</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32068,49 +32068,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0.4490983585728821</v>
+        <v>0.4490983585728808</v>
       </c>
       <c r="H15" t="n">
-        <v>4.337344673585467</v>
+        <v>4.337344673585455</v>
       </c>
       <c r="I15" t="n">
-        <v>15.46237769647862</v>
+        <v>15.46237769647857</v>
       </c>
       <c r="J15" t="n">
-        <v>42.42994623692304</v>
+        <v>42.42994623692292</v>
       </c>
       <c r="K15" t="n">
-        <v>72.51953626130614</v>
+        <v>72.51953626130593</v>
       </c>
       <c r="L15" t="n">
-        <v>97.51146596995846</v>
+        <v>97.51146596995818</v>
       </c>
       <c r="M15" t="n">
-        <v>113.7912814682254</v>
+        <v>113.7912814682251</v>
       </c>
       <c r="N15" t="n">
-        <v>116.8029980921637</v>
+        <v>116.8029980921634</v>
       </c>
       <c r="O15" t="n">
-        <v>106.8519239364173</v>
+        <v>106.8519239364169</v>
       </c>
       <c r="P15" t="n">
-        <v>85.75808919099185</v>
+        <v>85.7580891909916</v>
       </c>
       <c r="Q15" t="n">
-        <v>57.32701152589983</v>
+        <v>57.32701152589966</v>
       </c>
       <c r="R15" t="n">
-        <v>27.88349282437597</v>
+        <v>27.88349282437589</v>
       </c>
       <c r="S15" t="n">
-        <v>8.341805037526992</v>
+        <v>8.341805037526969</v>
       </c>
       <c r="T15" t="n">
-        <v>1.810181541791572</v>
+        <v>1.810181541791567</v>
       </c>
       <c r="U15" t="n">
-        <v>0.02954594464295278</v>
+        <v>0.0295459446429527</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32147,49 +32147,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.3765089776358789</v>
+        <v>0.3765089776358779</v>
       </c>
       <c r="H16" t="n">
-        <v>3.347507092071726</v>
+        <v>3.347507092071717</v>
       </c>
       <c r="I16" t="n">
-        <v>11.32265180017716</v>
+        <v>11.32265180017713</v>
       </c>
       <c r="J16" t="n">
-        <v>26.61918471885664</v>
+        <v>26.61918471885656</v>
       </c>
       <c r="K16" t="n">
-        <v>43.74349758351393</v>
+        <v>43.7434975835138</v>
       </c>
       <c r="L16" t="n">
-        <v>55.97661654779241</v>
+        <v>55.97661654779225</v>
       </c>
       <c r="M16" t="n">
-        <v>59.01949364886782</v>
+        <v>59.01949364886764</v>
       </c>
       <c r="N16" t="n">
-        <v>57.61614200495232</v>
+        <v>57.61614200495215</v>
       </c>
       <c r="O16" t="n">
-        <v>53.21783258438771</v>
+        <v>53.21783258438756</v>
       </c>
       <c r="P16" t="n">
-        <v>45.53704944061574</v>
+        <v>45.53704944061561</v>
       </c>
       <c r="Q16" t="n">
-        <v>31.52749266367346</v>
+        <v>31.52749266367337</v>
       </c>
       <c r="R16" t="n">
-        <v>16.92921275806415</v>
+        <v>16.9292127580641</v>
       </c>
       <c r="S16" t="n">
-        <v>6.561524637527087</v>
+        <v>6.561524637527069</v>
       </c>
       <c r="T16" t="n">
-        <v>1.608720177171482</v>
+        <v>1.608720177171478</v>
       </c>
       <c r="U16" t="n">
-        <v>0.02053685332559342</v>
+        <v>0.02053685332559336</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -34780,25 +34780,25 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M3" t="n">
-        <v>217.7067518141195</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N3" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="O3" t="n">
-        <v>241.0142888776591</v>
+        <v>113.3808631277494</v>
       </c>
       <c r="P3" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -35017,22 +35017,22 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L6" t="n">
-        <v>231.276337811895</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M6" t="n">
-        <v>241.0142888776591</v>
+        <v>169.9067907798017</v>
       </c>
       <c r="N6" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="O6" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q6" t="n">
         <v>0</v>
@@ -35254,22 +35254,22 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M9" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N9" t="n">
-        <v>169.9067907798017</v>
+        <v>240.0046611659691</v>
       </c>
       <c r="O9" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="P9" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
         <v>0</v>
@@ -35488,16 +35488,16 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>6.370323552522133</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
         <v>138.7877391315785</v>
       </c>
       <c r="L12" t="n">
-        <v>248.6418854471727</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>154.3230534491487</v>
+        <v>210.4624139667339</v>
       </c>
       <c r="N12" t="n">
         <v>276.1565137023555</v>
@@ -35506,7 +35506,7 @@
         <v>269.1887005891756</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>198.8728484821096</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
@@ -35646,28 +35646,28 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>59.29052642530579</v>
+        <v>59.29052642530557</v>
       </c>
       <c r="K14" t="n">
-        <v>210.8255783631306</v>
+        <v>210.8255783631303</v>
       </c>
       <c r="L14" t="n">
-        <v>314.3524467174102</v>
+        <v>314.3524467174099</v>
       </c>
       <c r="M14" t="n">
-        <v>366.5519545616828</v>
+        <v>366.5519545616825</v>
       </c>
       <c r="N14" t="n">
-        <v>357.7033529039397</v>
+        <v>357.7033529039393</v>
       </c>
       <c r="O14" t="n">
-        <v>292.1250542574854</v>
+        <v>292.1250542574851</v>
       </c>
       <c r="P14" t="n">
-        <v>211.2670430269376</v>
+        <v>211.2670430269372</v>
       </c>
       <c r="Q14" t="n">
-        <v>80.65097334385695</v>
+        <v>80.65097334385669</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
@@ -35725,28 +35725,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>41.68335491066519</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>199.1433342995257</v>
+        <v>199.1433342995255</v>
       </c>
       <c r="L15" t="n">
-        <v>329.7974314935435</v>
+        <v>329.7974314935432</v>
       </c>
       <c r="M15" t="n">
-        <v>437.362311296207</v>
+        <v>437.3623112962067</v>
       </c>
       <c r="N15" t="n">
-        <v>128.9935232387796</v>
+        <v>464.8036603523836</v>
       </c>
       <c r="O15" t="n">
-        <v>358.1179987687024</v>
+        <v>334.2376669823602</v>
       </c>
       <c r="P15" t="n">
-        <v>270.2464504165988</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>127.4225251757274</v>
+        <v>127.4225251757272</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35807,22 +35807,22 @@
         <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>21.47400575763108</v>
+        <v>21.47400575763095</v>
       </c>
       <c r="L16" t="n">
-        <v>83.56664180810856</v>
+        <v>83.56664180810839</v>
       </c>
       <c r="M16" t="n">
-        <v>98.6033706107084</v>
+        <v>98.60337061070823</v>
       </c>
       <c r="N16" t="n">
-        <v>101.7483143841809</v>
+        <v>101.7483143841807</v>
       </c>
       <c r="O16" t="n">
-        <v>77.80296049842738</v>
+        <v>77.80296049842724</v>
       </c>
       <c r="P16" t="n">
-        <v>42.81560870550923</v>
+        <v>42.8156087055091</v>
       </c>
       <c r="Q16" t="n">
         <v>0</v>
@@ -35962,7 +35962,7 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K18" t="n">
         <v>257.8255762031298</v>
@@ -35983,7 +35983,7 @@
         <v>339.6412258735647</v>
       </c>
       <c r="Q18" t="n">
-        <v>130.3926104730626</v>
+        <v>54.37527471535575</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36199,7 +36199,7 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K21" t="n">
         <v>257.8255762031298</v>
@@ -36211,7 +36211,7 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N21" t="n">
-        <v>559.3197334338902</v>
+        <v>439.8839133355119</v>
       </c>
       <c r="O21" t="n">
         <v>444.5817404245898</v>
@@ -36220,7 +36220,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q21" t="n">
-        <v>130.3926104730626</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36436,10 +36436,10 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K24" t="n">
-        <v>214.4070918624591</v>
+        <v>138.3897561047517</v>
       </c>
       <c r="L24" t="n">
         <v>408.7029475713857</v>
@@ -36694,7 +36694,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q27" t="n">
-        <v>130.3926104730626</v>
+        <v>130.3926104730631</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36931,7 +36931,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q30" t="n">
-        <v>130.3926104730626</v>
+        <v>130.3926104730631</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37168,7 +37168,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q33" t="n">
-        <v>130.3926104730631</v>
+        <v>130.3926104730626</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37384,7 +37384,7 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>76.0173357577069</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
         <v>257.8255762031298</v>
@@ -37405,7 +37405,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q36" t="n">
-        <v>54.37527471535621</v>
+        <v>130.3926104730635</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37621,7 +37621,7 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K39" t="n">
         <v>257.8255762031298</v>
@@ -37633,7 +37633,7 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N39" t="n">
-        <v>515.9012490932192</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O39" t="n">
         <v>444.5817404245898</v>
@@ -37642,7 +37642,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q39" t="n">
-        <v>173.8110948137341</v>
+        <v>54.37527471535667</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37858,7 +37858,7 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K42" t="n">
         <v>257.8255762031298</v>
@@ -37879,7 +37879,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q42" t="n">
-        <v>130.3926104730631</v>
+        <v>54.37527471535621</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
